--- a/docs/namespace-registry/pds-namespace-registry_hidden.xlsx
+++ b/docs/namespace-registry/pds-namespace-registry_hidden.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA7Ontologies\A01PDS4\01_ToDo\1O00\Changes\241122_Issue_845_Namespace_LCROSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA7Ontologies\A01PDS4\03_Namespaces\NameSpaceRegistry\250123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F81E95-7665-4614-B473-E6CA2B4BB6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD896769-56D0-4A7A-83A1-CD04D07365D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{FAC3036B-2C0F-0A46-BDED-22E3426EC150}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="856">
   <si>
     <t>Namespace Id (1)</t>
   </si>
@@ -2572,6 +2572,27 @@
   </si>
   <si>
     <t>Last Update</t>
+  </si>
+  <si>
+    <t>ama</t>
+  </si>
+  <si>
+    <t>http://pds.nasa.gov/pds4/ama/v1</t>
+  </si>
+  <si>
+    <t>PDS4_AMA</t>
+  </si>
+  <si>
+    <t>Atmospheres Modeling Annex</t>
+  </si>
+  <si>
+    <t>This LDD provides attributes appropriate to atmospheric modeling products that will reside in the Atmospheres Modeling Annex.</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>corner</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2750,6 +2771,16 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3068,12 +3099,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U140"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
@@ -3751,93 +3782,93 @@
       </c>
       <c r="U13" s="14"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:21" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.8">
+      <c r="A14" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="M14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>45680</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="24"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>41002</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="14"/>
-    </row>
-    <row r="15" spans="1:21" ht="128" x14ac:dyDescent="0.8">
-      <c r="A15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>36</v>
@@ -3846,61 +3877,61 @@
         <v>23</v>
       </c>
       <c r="K15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>41002</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" ht="128" x14ac:dyDescent="0.8">
+      <c r="A16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>42299</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="14"/>
-    </row>
-    <row r="16" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A16" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>495</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>494</v>
+        <v>111</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>496</v>
+        <v>104</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>497</v>
+        <v>105</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>36</v>
@@ -3909,28 +3940,28 @@
         <v>23</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>498</v>
+        <v>106</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="13">
-        <v>44329</v>
+        <v>42299</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="S16" s="12" t="s">
         <v>31</v>
@@ -3940,30 +3971,30 @@
       </c>
       <c r="U16" s="14"/>
     </row>
-    <row r="17" spans="1:21" ht="112" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A17" s="12" t="s">
-        <v>113</v>
+        <v>493</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>116</v>
+        <v>495</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>113</v>
+        <v>493</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>114</v>
+        <v>496</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>113</v>
+        <v>493</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>115</v>
+        <v>497</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>36</v>
@@ -3972,61 +4003,61 @@
         <v>23</v>
       </c>
       <c r="K17" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>44329</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" ht="112" x14ac:dyDescent="0.8">
+      <c r="A18" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>41435</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="14"/>
-    </row>
-    <row r="18" spans="1:21" ht="64" x14ac:dyDescent="0.8">
-      <c r="A18" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>531</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>530</v>
+        <v>117</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>525</v>
+        <v>113</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>524</v>
+        <v>113</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>526</v>
+        <v>115</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>36</v>
@@ -4035,28 +4066,28 @@
         <v>23</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>529</v>
+        <v>109</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q18" s="13">
-        <v>44398</v>
+        <v>41435</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>527</v>
+        <v>118</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>31</v>
@@ -4066,30 +4097,30 @@
       </c>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:21" ht="64" x14ac:dyDescent="0.8">
       <c r="A19" s="12" t="s">
-        <v>119</v>
+        <v>524</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>122</v>
+        <v>531</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>127</v>
+        <v>530</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>120</v>
+        <v>524</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>525</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>119</v>
+        <v>524</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>121</v>
+        <v>526</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>36</v>
@@ -4098,28 +4129,28 @@
         <v>23</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>126</v>
+        <v>528</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>529</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="13">
-        <v>42124</v>
+        <v>44398</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>31</v>
@@ -4131,28 +4162,28 @@
     </row>
     <row r="20" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A20" s="12" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>36</v>
@@ -4161,28 +4192,28 @@
         <v>23</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="13">
-        <v>41002</v>
+        <v>42124</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="S20" s="12" t="s">
         <v>31</v>
@@ -4194,28 +4225,28 @@
     </row>
     <row r="21" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A21" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>479</v>
+        <v>130</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>36</v>
@@ -4224,10 +4255,10 @@
         <v>23</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>108</v>
@@ -4242,10 +4273,10 @@
         <v>42</v>
       </c>
       <c r="Q21" s="13">
-        <v>43734</v>
+        <v>41002</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="S21" s="12" t="s">
         <v>31</v>
@@ -4255,30 +4286,30 @@
       </c>
       <c r="U21" s="14"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A22" s="12" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>507</v>
+        <v>134</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>36</v>
@@ -4287,28 +4318,28 @@
         <v>23</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>108</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>502</v>
+        <v>109</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>503</v>
+        <v>110</v>
       </c>
       <c r="P22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q22" s="13">
-        <v>44333</v>
+        <v>43734</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>504</v>
+        <v>138</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>31</v>
@@ -4318,30 +4349,30 @@
       </c>
       <c r="U22" s="14"/>
     </row>
-    <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A23" s="12" t="s">
-        <v>208</v>
+        <v>499</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>212</v>
+        <v>505</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>208</v>
+        <v>499</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>209</v>
+        <v>507</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>208</v>
+        <v>499</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>36</v>
@@ -4350,7 +4381,7 @@
         <v>23</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>211</v>
+        <v>501</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>107</v>
@@ -4359,19 +4390,19 @@
         <v>108</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>109</v>
+        <v>502</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>110</v>
+        <v>503</v>
       </c>
       <c r="P23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="13">
-        <v>42650</v>
+        <v>44333</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>30</v>
+        <v>504</v>
       </c>
       <c r="S23" s="12" t="s">
         <v>31</v>
@@ -4381,30 +4412,30 @@
       </c>
       <c r="U23" s="14"/>
     </row>
-    <row r="24" spans="1:21" ht="64" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A24" s="12" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>36</v>
@@ -4413,10 +4444,10 @@
         <v>23</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>108</v>
@@ -4431,10 +4462,10 @@
         <v>42</v>
       </c>
       <c r="Q24" s="13">
-        <v>43734</v>
+        <v>42650</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="S24" s="12" t="s">
         <v>31</v>
@@ -4444,30 +4475,30 @@
       </c>
       <c r="U24" s="14"/>
     </row>
-    <row r="25" spans="1:21" ht="80" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:21" ht="64" x14ac:dyDescent="0.8">
       <c r="A25" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>36</v>
@@ -4476,28 +4507,28 @@
         <v>23</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q25" s="13">
-        <v>44257</v>
+        <v>43734</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="S25" s="12" t="s">
         <v>31</v>
@@ -4507,30 +4538,30 @@
       </c>
       <c r="U25" s="14"/>
     </row>
-    <row r="26" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:21" ht="80" x14ac:dyDescent="0.8">
       <c r="A26" s="12" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>36</v>
@@ -4539,28 +4570,28 @@
         <v>23</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="P26" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="13">
-        <v>44110</v>
+        <v>44257</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="S26" s="12" t="s">
         <v>31</v>
@@ -4572,28 +4603,28 @@
     </row>
     <row r="27" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A27" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>36</v>
@@ -4602,28 +4633,28 @@
         <v>23</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="P27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q27" s="13">
-        <v>42118</v>
+        <v>44110</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="S27" s="12" t="s">
         <v>31</v>
@@ -4633,30 +4664,30 @@
       </c>
       <c r="U27" s="14"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A28" s="12" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>36</v>
@@ -4665,28 +4696,28 @@
         <v>23</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="P28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q28" s="13">
-        <v>41002</v>
+        <v>42118</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>31</v>
@@ -4696,28 +4727,30 @@
       </c>
       <c r="U28" s="14"/>
     </row>
-    <row r="29" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>484</v>
+      </c>
       <c r="C29" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>36</v>
@@ -4726,19 +4759,19 @@
         <v>23</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="P29" s="12" t="s">
         <v>42</v>
@@ -4757,30 +4790,28 @@
       </c>
       <c r="U29" s="14"/>
     </row>
-    <row r="30" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A30" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>485</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>36</v>
@@ -4789,61 +4820,61 @@
         <v>23</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="L30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>41002</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+      <c r="A31" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>43734</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30" s="14"/>
-    </row>
-    <row r="31" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A31" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="B31" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>36</v>
@@ -4852,61 +4883,61 @@
         <v>23</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>43734</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A32" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>41002</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U31" s="14"/>
-    </row>
-    <row r="32" spans="1:21" ht="48" x14ac:dyDescent="0.8">
-      <c r="A32" s="12" t="s">
-        <v>652</v>
-      </c>
       <c r="B32" s="12" t="s">
-        <v>648</v>
+        <v>486</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>649</v>
+        <v>173</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>653</v>
+        <v>166</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>652</v>
+        <v>166</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>654</v>
+        <v>168</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>36</v>
@@ -4915,28 +4946,28 @@
         <v>23</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q32" s="13">
-        <v>44943</v>
+        <v>41002</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>31</v>
@@ -4948,28 +4979,28 @@
     </row>
     <row r="33" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A33" s="12" t="s">
-        <v>180</v>
+        <v>652</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>183</v>
+        <v>648</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>184</v>
+        <v>649</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>181</v>
+        <v>652</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>653</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>180</v>
+        <v>652</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>182</v>
+        <v>654</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>36</v>
@@ -4978,10 +5009,10 @@
         <v>23</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>177</v>
@@ -4996,10 +5027,10 @@
         <v>42</v>
       </c>
       <c r="Q33" s="13">
-        <v>41589</v>
+        <v>44943</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="S33" s="12" t="s">
         <v>31</v>
@@ -5011,28 +5042,28 @@
     </row>
     <row r="34" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A34" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>36</v>
@@ -5041,28 +5072,28 @@
         <v>23</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q34" s="13">
-        <v>42870</v>
+        <v>41589</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S34" s="12" t="s">
         <v>31</v>
@@ -5074,28 +5105,28 @@
     </row>
     <row r="35" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A35" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>36</v>
@@ -5104,149 +5135,149 @@
         <v>23</v>
       </c>
       <c r="K35" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>42870</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+      <c r="A36" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="C36" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="E36" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="M36" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N36" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="O36" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="P35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q35" s="13">
+      <c r="P36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="13">
         <v>44110</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="R36" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="S35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A36" s="11" t="s">
+      <c r="S36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A37" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-    </row>
-    <row r="37" spans="1:21" ht="48" x14ac:dyDescent="0.8">
-      <c r="A37" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q37" s="13">
-        <v>44791</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
     </row>
     <row r="38" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A38" s="12" t="s">
-        <v>214</v>
+        <v>632</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>219</v>
+        <v>639</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>216</v>
+        <v>633</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>634</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>214</v>
+        <v>632</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>217</v>
+        <v>635</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>213</v>
@@ -5255,28 +5286,28 @@
         <v>23</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>217</v>
+        <v>635</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>178</v>
+        <v>637</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>179</v>
+        <v>638</v>
       </c>
       <c r="P38" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q38" s="13">
-        <v>42089</v>
+        <v>44791</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>185</v>
+        <v>636</v>
       </c>
       <c r="S38" s="12" t="s">
         <v>31</v>
@@ -5286,30 +5317,30 @@
       </c>
       <c r="U38" s="14"/>
     </row>
-    <row r="39" spans="1:21" ht="96" x14ac:dyDescent="0.8">
+    <row r="39" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A39" s="12" t="s">
-        <v>489</v>
+        <v>214</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>490</v>
+        <v>641</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>492</v>
+        <v>219</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>489</v>
+        <v>215</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>491</v>
+        <v>216</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>489</v>
+        <v>214</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>523</v>
+        <v>217</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>213</v>
@@ -5318,28 +5349,28 @@
         <v>23</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="P39" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q39" s="13">
-        <v>44329</v>
+        <v>42089</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="S39" s="12" t="s">
         <v>31</v>
@@ -5349,30 +5380,30 @@
       </c>
       <c r="U39" s="14"/>
     </row>
-    <row r="40" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:21" ht="96" x14ac:dyDescent="0.8">
       <c r="A40" s="12" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>521</v>
+        <v>489</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>213</v>
@@ -5399,7 +5430,7 @@
         <v>42</v>
       </c>
       <c r="Q40" s="13">
-        <v>44385</v>
+        <v>44329</v>
       </c>
       <c r="R40" s="12" t="s">
         <v>109</v>
@@ -5414,28 +5445,28 @@
     </row>
     <row r="41" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A41" s="12" t="s">
-        <v>655</v>
+        <v>519</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>655</v>
+        <v>519</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>659</v>
+        <v>520</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>656</v>
+        <v>519</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>655</v>
+        <v>519</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>658</v>
+        <v>522</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>213</v>
@@ -5444,28 +5475,28 @@
         <v>23</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>657</v>
+        <v>130</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>637</v>
+        <v>109</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>638</v>
+        <v>110</v>
       </c>
       <c r="P41" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="13">
-        <v>45013</v>
+        <v>44385</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>637</v>
+        <v>109</v>
       </c>
       <c r="S41" s="12" t="s">
         <v>31</v>
@@ -5475,30 +5506,30 @@
       </c>
       <c r="U41" s="14"/>
     </row>
-    <row r="42" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="42" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A42" s="12" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>536</v>
+        <v>659</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>533</v>
+        <v>655</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>656</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>534</v>
+        <v>658</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>213</v>
@@ -5507,28 +5538,28 @@
         <v>23</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>535</v>
+        <v>657</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>528</v>
+        <v>637</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>529</v>
+        <v>638</v>
       </c>
       <c r="P42" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q42" s="13">
-        <v>44426</v>
+        <v>45013</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>185</v>
+        <v>637</v>
       </c>
       <c r="S42" s="12" t="s">
         <v>31</v>
@@ -5538,30 +5569,30 @@
       </c>
       <c r="U42" s="14"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="43" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A43" s="12" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>587</v>
+        <v>532</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>533</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>588</v>
+        <v>534</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>213</v>
@@ -5570,28 +5601,28 @@
         <v>23</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>169</v>
+        <v>535</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="P43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q43" s="13">
-        <v>44707</v>
+        <v>44426</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>591</v>
+        <v>185</v>
       </c>
       <c r="S43" s="12" t="s">
         <v>31</v>
@@ -5603,58 +5634,58 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A44" s="12" t="s">
-        <v>220</v>
+        <v>585</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>223</v>
+        <v>590</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>703</v>
+        <v>586</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>587</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>220</v>
+        <v>585</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>222</v>
+        <v>588</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>702</v>
+        <v>169</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>698</v>
+        <v>124</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>40</v>
+        <v>581</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>41</v>
+        <v>582</v>
       </c>
       <c r="P44" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="13">
-        <v>44193</v>
+        <v>44707</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="S44" s="12" t="s">
         <v>31</v>
@@ -5664,60 +5695,60 @@
       </c>
       <c r="U44" s="14"/>
     </row>
-    <row r="45" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A45" s="12" t="s">
-        <v>624</v>
+        <v>220</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>630</v>
+        <v>223</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>625</v>
+        <v>221</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>624</v>
+        <v>220</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>629</v>
+        <v>222</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>535</v>
+        <v>702</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>177</v>
+        <v>698</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>609</v>
+        <v>40</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>628</v>
+        <v>41</v>
       </c>
       <c r="P45" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q45" s="13">
-        <v>44735</v>
+        <v>44193</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="S45" s="12" t="s">
         <v>31</v>
@@ -5729,121 +5760,121 @@
     </row>
     <row r="46" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A46" s="12" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>720</v>
+        <v>626</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>543</v>
+        <v>21</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>544</v>
+        <v>23</v>
       </c>
       <c r="K46" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>44735</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" s="14"/>
+    </row>
+    <row r="47" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A47" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="L46" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q46" s="13">
-        <v>44426</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46" s="14"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A47" s="12" t="s">
-        <v>224</v>
-      </c>
       <c r="B47" s="12" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>229</v>
+        <v>562</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>226</v>
+        <v>564</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>720</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>224</v>
+        <v>561</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>227</v>
+        <v>538</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>23</v>
+        <v>544</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>228</v>
+        <v>561</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>123</v>
+        <v>537</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>190</v>
+        <v>565</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>191</v>
+        <v>566</v>
       </c>
       <c r="P47" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q47" s="13">
-        <v>42119</v>
+        <v>44426</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>193</v>
+        <v>541</v>
       </c>
       <c r="S47" s="12" t="s">
         <v>31</v>
@@ -5855,28 +5886,28 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A48" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>233</v>
+        <v>611</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>213</v>
@@ -5885,28 +5916,28 @@
         <v>23</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="P48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q48" s="13">
-        <v>41837</v>
+        <v>42119</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="S48" s="12" t="s">
         <v>31</v>
@@ -5924,13 +5955,13 @@
         <v>233</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>230</v>
@@ -5981,28 +6012,28 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A50" s="12" t="s">
-        <v>843</v>
+        <v>230</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>846</v>
+        <v>233</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>847</v>
+        <v>237</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>845</v>
+        <v>230</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>843</v>
+        <v>230</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>846</v>
+        <v>233</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>213</v>
@@ -6011,28 +6042,28 @@
         <v>23</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>846</v>
+        <v>233</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>637</v>
+        <v>100</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>638</v>
+        <v>101</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q50" s="13">
-        <v>45612</v>
+        <v>41837</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>637</v>
+        <v>235</v>
       </c>
       <c r="S50" s="12" t="s">
         <v>31</v>
@@ -6044,28 +6075,28 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A51" s="12" t="s">
-        <v>555</v>
+        <v>843</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>557</v>
+        <v>846</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>558</v>
+        <v>847</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>676</v>
+        <v>844</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>559</v>
+        <v>845</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>555</v>
+        <v>843</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>560</v>
+        <v>846</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>213</v>
@@ -6074,7 +6105,7 @@
         <v>23</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>560</v>
+        <v>846</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>123</v>
@@ -6083,19 +6114,19 @@
         <v>124</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>190</v>
+        <v>637</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>191</v>
+        <v>638</v>
       </c>
       <c r="P51" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q51" s="13">
-        <v>44608</v>
+        <v>45612</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>193</v>
+        <v>637</v>
       </c>
       <c r="S51" s="12" t="s">
         <v>31</v>
@@ -6107,28 +6138,28 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A52" s="12" t="s">
-        <v>660</v>
+        <v>555</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>661</v>
+        <v>557</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>662</v>
+        <v>558</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>663</v>
+        <v>559</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>660</v>
+        <v>555</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>664</v>
+        <v>560</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>213</v>
@@ -6137,28 +6168,28 @@
         <v>23</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>665</v>
+        <v>190</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>666</v>
+        <v>191</v>
       </c>
       <c r="P52" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q52" s="13">
-        <v>44957</v>
+        <v>44608</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>667</v>
+        <v>193</v>
       </c>
       <c r="S52" s="12" t="s">
         <v>31</v>
@@ -6170,28 +6201,28 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A53" s="12" t="s">
-        <v>508</v>
+        <v>660</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>556</v>
+        <v>661</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>512</v>
+        <v>662</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>510</v>
+        <v>675</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>663</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>508</v>
+        <v>660</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>513</v>
+        <v>664</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>213</v>
@@ -6200,28 +6231,28 @@
         <v>23</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>190</v>
+        <v>665</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>191</v>
+        <v>666</v>
       </c>
       <c r="P53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q53" s="13">
-        <v>44333</v>
+        <v>44957</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>193</v>
+        <v>667</v>
       </c>
       <c r="S53" s="12" t="s">
         <v>31</v>
@@ -6233,28 +6264,28 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A54" s="12" t="s">
-        <v>238</v>
+        <v>508</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>242</v>
+        <v>512</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>239</v>
+        <v>509</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>238</v>
+        <v>508</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>213</v>
@@ -6263,7 +6294,7 @@
         <v>23</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>241</v>
+        <v>511</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>123</v>
@@ -6281,7 +6312,7 @@
         <v>42</v>
       </c>
       <c r="Q54" s="13">
-        <v>43935</v>
+        <v>44333</v>
       </c>
       <c r="R54" s="12" t="s">
         <v>193</v>
@@ -6296,28 +6327,28 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A55" s="12" t="s">
-        <v>687</v>
+        <v>238</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>692</v>
+        <v>613</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>693</v>
+        <v>242</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>689</v>
+        <v>239</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>687</v>
+        <v>238</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>691</v>
+        <v>514</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>213</v>
@@ -6326,7 +6357,7 @@
         <v>23</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>690</v>
+        <v>241</v>
       </c>
       <c r="L55" s="12" t="s">
         <v>123</v>
@@ -6335,19 +6366,19 @@
         <v>124</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>637</v>
+        <v>190</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>638</v>
+        <v>191</v>
       </c>
       <c r="P55" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q55" s="13">
-        <v>45146</v>
+        <v>43935</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>636</v>
+        <v>193</v>
       </c>
       <c r="S55" s="12" t="s">
         <v>31</v>
@@ -6359,28 +6390,28 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A56" s="12" t="s">
-        <v>243</v>
+        <v>687</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>247</v>
+        <v>693</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>245</v>
+        <v>688</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>689</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>243</v>
+        <v>687</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>515</v>
+        <v>691</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>213</v>
@@ -6389,28 +6420,28 @@
         <v>23</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>246</v>
+        <v>690</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>109</v>
+        <v>637</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>110</v>
+        <v>638</v>
       </c>
       <c r="P56" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q56" s="13">
-        <v>41600</v>
+        <v>45146</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>132</v>
+        <v>636</v>
       </c>
       <c r="S56" s="12" t="s">
         <v>31</v>
@@ -6422,28 +6453,28 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A57" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>213</v>
@@ -6452,7 +6483,7 @@
         <v>23</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L57" s="12" t="s">
         <v>107</v>
@@ -6470,10 +6501,10 @@
         <v>42</v>
       </c>
       <c r="Q57" s="13">
-        <v>42220</v>
+        <v>41600</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="S57" s="12" t="s">
         <v>31</v>
@@ -6485,28 +6516,28 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A58" s="12" t="s">
-        <v>668</v>
+        <v>248</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>670</v>
+        <v>252</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>671</v>
+        <v>249</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>672</v>
+        <v>250</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>668</v>
+        <v>248</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>673</v>
+        <v>516</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>213</v>
@@ -6515,28 +6546,28 @@
         <v>23</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>674</v>
+        <v>251</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>637</v>
+        <v>109</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>638</v>
+        <v>110</v>
       </c>
       <c r="P58" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q58" s="13">
-        <v>44951</v>
+        <v>42220</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>636</v>
+        <v>253</v>
       </c>
       <c r="S58" s="12" t="s">
         <v>31</v>
@@ -6548,28 +6579,28 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A59" s="12" t="s">
-        <v>254</v>
+        <v>668</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>259</v>
+        <v>670</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>255</v>
+        <v>671</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>256</v>
+        <v>672</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>254</v>
+        <v>668</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>257</v>
+        <v>673</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>213</v>
@@ -6578,28 +6609,28 @@
         <v>23</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>258</v>
+        <v>674</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>91</v>
+        <v>637</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>92</v>
+        <v>638</v>
       </c>
       <c r="P59" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q59" s="13">
-        <v>42158</v>
+        <v>44951</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>207</v>
+        <v>636</v>
       </c>
       <c r="S59" s="12" t="s">
         <v>31</v>
@@ -6617,13 +6648,13 @@
         <v>612</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>254</v>
@@ -6672,30 +6703,30 @@
       </c>
       <c r="U60" s="14"/>
     </row>
-    <row r="61" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A61" s="12" t="s">
-        <v>642</v>
+        <v>254</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>647</v>
+        <v>261</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>643</v>
+        <v>254</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>642</v>
+        <v>254</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>645</v>
+        <v>257</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>213</v>
@@ -6704,28 +6735,28 @@
         <v>23</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>644</v>
+        <v>258</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>637</v>
+        <v>91</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>638</v>
+        <v>92</v>
       </c>
       <c r="P61" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q61" s="13">
-        <v>44833</v>
+        <v>42158</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>636</v>
+        <v>207</v>
       </c>
       <c r="S61" s="12" t="s">
         <v>31</v>
@@ -6737,28 +6768,28 @@
     </row>
     <row r="62" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A62" s="12" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>602</v>
+        <v>642</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>213</v>
@@ -6767,7 +6798,7 @@
         <v>23</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="L62" s="12" t="s">
         <v>123</v>
@@ -6776,19 +6807,19 @@
         <v>124</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="P62" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q62" s="13">
-        <v>44713</v>
+        <v>44833</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="S62" s="12" t="s">
         <v>31</v>
@@ -6798,30 +6829,30 @@
       </c>
       <c r="U62" s="14"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="63" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A63" s="12" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>213</v>
@@ -6830,28 +6861,28 @@
         <v>23</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>681</v>
+        <v>124</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>266</v>
+        <v>609</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>267</v>
+        <v>610</v>
       </c>
       <c r="P63" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q63" s="13">
-        <v>43871</v>
+        <v>44713</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="S63" s="12" t="s">
         <v>31</v>
@@ -6861,30 +6892,30 @@
       </c>
       <c r="U63" s="14"/>
     </row>
-    <row r="64" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A64" s="12" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>213</v>
@@ -6893,28 +6924,28 @@
         <v>23</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="L64" s="12" t="s">
         <v>218</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>177</v>
+        <v>681</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>570</v>
+        <v>266</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>571</v>
+        <v>267</v>
       </c>
       <c r="P64" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q64" s="13">
-        <v>44643</v>
+        <v>43871</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>185</v>
+        <v>551</v>
       </c>
       <c r="S64" s="12" t="s">
         <v>31</v>
@@ -6924,30 +6955,30 @@
       </c>
       <c r="U64" s="14"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="65" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A65" s="12" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>684</v>
+        <v>572</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>213</v>
@@ -6956,7 +6987,7 @@
         <v>23</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="L65" s="12" t="s">
         <v>218</v>
@@ -6965,19 +6996,19 @@
         <v>177</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="P65" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q65" s="13">
-        <v>44713</v>
+        <v>44643</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>598</v>
+        <v>185</v>
       </c>
       <c r="S65" s="12" t="s">
         <v>31</v>
@@ -6989,28 +7020,28 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A66" s="12" t="s">
-        <v>262</v>
+        <v>592</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>268</v>
+        <v>597</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>264</v>
+        <v>593</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>594</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>262</v>
+        <v>592</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>42</v>
+        <v>684</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>213</v>
@@ -7019,28 +7050,28 @@
         <v>23</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>265</v>
+        <v>595</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>218</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>681</v>
+        <v>177</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>266</v>
+        <v>598</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>267</v>
+        <v>599</v>
       </c>
       <c r="P66" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q66" s="13">
-        <v>41771</v>
+        <v>44713</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>185</v>
+        <v>598</v>
       </c>
       <c r="S66" s="12" t="s">
         <v>31</v>
@@ -7050,60 +7081,60 @@
       </c>
       <c r="U66" s="14"/>
     </row>
-    <row r="67" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A67" s="12" t="s">
-        <v>694</v>
+        <v>262</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>701</v>
+        <v>619</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>697</v>
+        <v>268</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>704</v>
+        <v>263</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>694</v>
+        <v>262</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>696</v>
+        <v>42</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>698</v>
+        <v>265</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>700</v>
+        <v>266</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="P67" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q67" s="13">
-        <v>45914</v>
+        <v>41771</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>699</v>
+        <v>185</v>
       </c>
       <c r="S67" s="12" t="s">
         <v>31</v>
@@ -7113,60 +7144,60 @@
       </c>
       <c r="U67" s="14"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="68" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A68" s="12" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>267</v>
+        <v>699</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P68" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q68" s="13">
-        <v>45014</v>
+        <v>45914</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="S68" s="12" t="s">
         <v>31</v>
@@ -7178,28 +7209,28 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A69" s="12" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>213</v>
@@ -7208,28 +7239,28 @@
         <v>23</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>90</v>
+        <v>681</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="P69" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q69" s="13">
-        <v>45203</v>
+        <v>45014</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>207</v>
+        <v>680</v>
       </c>
       <c r="S69" s="12" t="s">
         <v>31</v>
@@ -7241,28 +7272,28 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A70" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>213</v>
@@ -7271,7 +7302,7 @@
         <v>23</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L70" s="12" t="s">
         <v>89</v>
@@ -7304,28 +7335,28 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A71" s="12" t="s">
-        <v>576</v>
+        <v>706</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>577</v>
+        <v>708</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>579</v>
+        <v>713</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>715</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>576</v>
+        <v>706</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>583</v>
+        <v>717</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>213</v>
@@ -7334,28 +7365,28 @@
         <v>23</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>580</v>
+        <v>719</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>582</v>
+        <v>92</v>
       </c>
       <c r="P71" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q71" s="13">
-        <v>44700</v>
+        <v>45203</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>584</v>
+        <v>207</v>
       </c>
       <c r="S71" s="12" t="s">
         <v>31</v>
@@ -7365,30 +7396,30 @@
       </c>
       <c r="U71" s="14"/>
     </row>
-    <row r="72" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A72" s="12" t="s">
-        <v>731</v>
+        <v>576</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>736</v>
+        <v>577</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>733</v>
+        <v>578</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>579</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>731</v>
+        <v>576</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>735</v>
+        <v>583</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>213</v>
@@ -7397,28 +7428,28 @@
         <v>23</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>734</v>
+        <v>580</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>738</v>
+        <v>581</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>582</v>
       </c>
       <c r="P72" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q72" s="13">
-        <v>45489</v>
+        <v>44700</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
       <c r="S72" s="12" t="s">
         <v>31</v>
@@ -7428,30 +7459,30 @@
       </c>
       <c r="U72" s="14"/>
     </row>
-    <row r="73" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="73" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A73" s="12" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>213</v>
@@ -7460,7 +7491,7 @@
         <v>23</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="L73" s="12" t="s">
         <v>123</v>
@@ -7469,19 +7500,19 @@
         <v>124</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="O73" s="12" t="s">
-        <v>727</v>
+        <v>637</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>738</v>
       </c>
       <c r="P73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q73" s="13">
-        <v>45031</v>
+        <v>45489</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>728</v>
+        <v>636</v>
       </c>
       <c r="S73" s="12" t="s">
         <v>31</v>
@@ -7493,89 +7524,91 @@
     </row>
     <row r="74" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A74" s="12" t="s">
-        <v>269</v>
+        <v>721</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>620</v>
+        <v>724</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>275</v>
+        <v>730</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>270</v>
+        <v>722</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>723</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>269</v>
+        <v>721</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>272</v>
+        <v>725</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>269</v>
+        <v>726</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>273</v>
+        <v>729</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>274</v>
+        <v>727</v>
       </c>
       <c r="P74" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q74" s="13">
-        <v>43788</v>
+        <v>45031</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="S74" s="12" t="s">
         <v>31</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U74" s="14"/>
     </row>
     <row r="75" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A75" s="12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="12"/>
+        <v>275</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="E75" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I75" s="12" t="s">
         <v>213</v>
@@ -7596,7 +7629,7 @@
         <v>273</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P75" s="12" t="s">
         <v>42</v>
@@ -7605,10 +7638,10 @@
         <v>43788</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>283</v>
+        <v>65</v>
       </c>
       <c r="S75" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T75" s="12" t="s">
         <v>276</v>
@@ -7617,26 +7650,26 @@
     </row>
     <row r="76" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A76" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>213</v>
@@ -7644,9 +7677,15 @@
       <c r="J76" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
+      <c r="K76" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="N76" s="12" t="s">
         <v>273</v>
       </c>
@@ -7663,7 +7702,7 @@
         <v>283</v>
       </c>
       <c r="S76" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T76" s="12" t="s">
         <v>276</v>
@@ -7672,26 +7711,26 @@
     </row>
     <row r="77" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A77" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>213</v>
@@ -7718,7 +7757,7 @@
         <v>283</v>
       </c>
       <c r="S77" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T77" s="12" t="s">
         <v>276</v>
@@ -7727,26 +7766,26 @@
     </row>
     <row r="78" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A78" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>213</v>
@@ -7782,26 +7821,26 @@
     </row>
     <row r="79" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A79" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>213</v>
@@ -7837,26 +7876,26 @@
     </row>
     <row r="80" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A80" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>213</v>
@@ -7892,26 +7931,26 @@
     </row>
     <row r="81" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A81" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>213</v>
@@ -7947,26 +7986,26 @@
     </row>
     <row r="82" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A82" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>213</v>
@@ -8002,26 +8041,26 @@
     </row>
     <row r="83" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A83" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I83" s="12" t="s">
         <v>213</v>
@@ -8057,26 +8096,26 @@
     </row>
     <row r="84" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A84" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>213</v>
@@ -8112,26 +8151,26 @@
     </row>
     <row r="85" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A85" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>213</v>
@@ -8167,26 +8206,26 @@
     </row>
     <row r="86" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A86" s="12" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>213</v>
@@ -8222,26 +8261,26 @@
     </row>
     <row r="87" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A87" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>213</v>
@@ -8277,141 +8316,139 @@
     </row>
     <row r="88" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A88" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>345</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D88" s="12"/>
       <c r="E88" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I88" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J88" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="P88" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="S88" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="T88" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="U88" s="14"/>
+    </row>
+    <row r="89" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A89" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J89" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="12" t="s">
+      <c r="K89" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="L89" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="M88" s="12" t="s">
+      <c r="M89" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="N88" s="12" t="s">
+      <c r="N89" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="O88" s="12" t="s">
+      <c r="O89" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="P88" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q88" s="13">
+      <c r="P89" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q89" s="13">
         <v>44111</v>
       </c>
-      <c r="R88" s="12" t="s">
+      <c r="R89" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="S88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U88" s="14"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q89" s="13">
-        <v>43788</v>
-      </c>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
+      <c r="S89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T89" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="U89" s="14"/>
     </row>
-    <row r="90" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A90" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="N90" s="12" t="s">
-        <v>354</v>
-      </c>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
       <c r="O90" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="P90" s="12" t="s">
         <v>42</v>
@@ -8419,39 +8456,35 @@
       <c r="Q90" s="13">
         <v>43788</v>
       </c>
-      <c r="R90" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="S90" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T90" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
       <c r="U90" s="14"/>
     </row>
     <row r="91" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A91" s="12" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>622</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="12"/>
+        <v>355</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="E91" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>213</v>
@@ -8472,7 +8505,7 @@
         <v>354</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="P91" s="12" t="s">
         <v>42</v>
@@ -8481,7 +8514,7 @@
         <v>43788</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="S91" s="12" t="s">
         <v>31</v>
@@ -8493,26 +8526,26 @@
     </row>
     <row r="92" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A92" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>622</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>213</v>
@@ -8533,7 +8566,7 @@
         <v>354</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="P92" s="12" t="s">
         <v>42</v>
@@ -8542,7 +8575,7 @@
         <v>43788</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="S92" s="12" t="s">
         <v>31</v>
@@ -8554,26 +8587,26 @@
     </row>
     <row r="93" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A93" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>622</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>213</v>
@@ -8615,26 +8648,26 @@
     </row>
     <row r="94" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A94" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>622</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>213</v>
@@ -8655,7 +8688,7 @@
         <v>354</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="P94" s="12" t="s">
         <v>42</v>
@@ -8664,7 +8697,7 @@
         <v>43788</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="S94" s="12" t="s">
         <v>31</v>
@@ -8674,23 +8707,49 @@
       </c>
       <c r="U94" s="14"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
+    <row r="95" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A95" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
+      <c r="E95" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>354</v>
+      </c>
       <c r="O95" s="12" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="P95" s="12" t="s">
         <v>42</v>
@@ -8698,54 +8757,32 @@
       <c r="Q95" s="13">
         <v>43788</v>
       </c>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
+      <c r="R95" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="S95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T95" s="12" t="s">
+        <v>276</v>
+      </c>
       <c r="U95" s="14"/>
     </row>
-    <row r="96" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="N96" s="12" t="s">
-        <v>382</v>
-      </c>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
       <c r="O96" s="12" t="s">
         <v>63</v>
       </c>
@@ -8755,39 +8792,35 @@
       <c r="Q96" s="13">
         <v>43788</v>
       </c>
-      <c r="R96" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="S96" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="T96" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
       <c r="U96" s="14"/>
     </row>
     <row r="97" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A97" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D97" s="12"/>
+        <v>383</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>379</v>
+      </c>
       <c r="E97" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I97" s="12" t="s">
         <v>213</v>
@@ -8820,7 +8853,7 @@
         <v>356</v>
       </c>
       <c r="S97" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T97" s="12" t="s">
         <v>276</v>
@@ -8829,26 +8862,26 @@
     </row>
     <row r="98" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A98" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>213</v>
@@ -8881,7 +8914,7 @@
         <v>356</v>
       </c>
       <c r="S98" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T98" s="12" t="s">
         <v>276</v>
@@ -8890,26 +8923,26 @@
     </row>
     <row r="99" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A99" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>213</v>
@@ -8951,26 +8984,26 @@
     </row>
     <row r="100" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A100" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>213</v>
@@ -9012,26 +9045,26 @@
     </row>
     <row r="101" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A101" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>213</v>
@@ -9073,26 +9106,26 @@
     </row>
     <row r="102" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A102" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>213</v>
@@ -9134,26 +9167,26 @@
     </row>
     <row r="103" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A103" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>213</v>
@@ -9195,26 +9228,26 @@
     </row>
     <row r="104" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A104" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>213</v>
@@ -9256,26 +9289,26 @@
     </row>
     <row r="105" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A105" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>213</v>
@@ -9317,26 +9350,26 @@
     </row>
     <row r="106" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A106" s="12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>213</v>
@@ -9378,26 +9411,26 @@
     </row>
     <row r="107" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A107" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>213</v>
@@ -9439,26 +9472,26 @@
     </row>
     <row r="108" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A108" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>213</v>
@@ -9499,88 +9532,90 @@
       <c r="U108" s="14"/>
     </row>
     <row r="109" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A109" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="G109" s="17" t="s">
+      <c r="A109" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G109" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H109" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="I109" s="17" t="s">
+      <c r="H109" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="I109" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J109" s="17" t="s">
+      <c r="J109" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K109" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L109" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M109" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N109" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R109" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S109" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T109" s="17" t="s">
+      <c r="K109" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O109" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R109" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S109" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U109" s="19"/>
+      <c r="T109" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="U109" s="14"/>
     </row>
     <row r="110" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A110" s="17" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="I110" s="17" t="s">
         <v>213</v>
@@ -9609,7 +9644,7 @@
         <v>745</v>
       </c>
       <c r="S110" s="17" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T110" s="17" t="s">
         <v>276</v>
@@ -9618,28 +9653,28 @@
     </row>
     <row r="111" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A111" s="17" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I111" s="17" t="s">
         <v>213</v>
@@ -9668,7 +9703,7 @@
         <v>745</v>
       </c>
       <c r="S111" s="17" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T111" s="17" t="s">
         <v>276</v>
@@ -9677,28 +9712,28 @@
     </row>
     <row r="112" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A112" s="17" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G112" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I112" s="17" t="s">
         <v>213</v>
@@ -9727,7 +9762,7 @@
         <v>745</v>
       </c>
       <c r="S112" s="17" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T112" s="17" t="s">
         <v>276</v>
@@ -9736,28 +9771,28 @@
     </row>
     <row r="113" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A113" s="17" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G113" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I113" s="17" t="s">
         <v>213</v>
@@ -9786,7 +9821,7 @@
         <v>745</v>
       </c>
       <c r="S113" s="17" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T113" s="17" t="s">
         <v>276</v>
@@ -9795,28 +9830,28 @@
     </row>
     <row r="114" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A114" s="17" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I114" s="17" t="s">
         <v>213</v>
@@ -9845,7 +9880,7 @@
         <v>745</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T114" s="17" t="s">
         <v>276</v>
@@ -9854,28 +9889,28 @@
     </row>
     <row r="115" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A115" s="17" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G115" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="I115" s="17" t="s">
         <v>213</v>
@@ -9913,28 +9948,28 @@
     </row>
     <row r="116" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A116" s="17" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G116" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I116" s="17" t="s">
         <v>213</v>
@@ -9972,28 +10007,28 @@
     </row>
     <row r="117" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A117" s="17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G117" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="I117" s="17" t="s">
         <v>213</v>
@@ -10031,28 +10066,28 @@
     </row>
     <row r="118" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A118" s="17" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I118" s="17" t="s">
         <v>213</v>
@@ -10078,7 +10113,7 @@
         <v>45509</v>
       </c>
       <c r="R118" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S118" s="17" t="s">
         <v>276</v>
@@ -10090,28 +10125,28 @@
     </row>
     <row r="119" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A119" s="17" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="I119" s="17" t="s">
         <v>213</v>
@@ -10149,28 +10184,28 @@
     </row>
     <row r="120" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A120" s="17" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G120" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="I120" s="17" t="s">
         <v>213</v>
@@ -10208,28 +10243,28 @@
     </row>
     <row r="121" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A121" s="17" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="I121" s="17" t="s">
         <v>213</v>
@@ -10267,28 +10302,28 @@
     </row>
     <row r="122" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A122" s="17" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G122" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>213</v>
@@ -10326,28 +10361,28 @@
     </row>
     <row r="123" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A123" s="17" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G123" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>213</v>
@@ -10385,28 +10420,28 @@
     </row>
     <row r="124" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A124" s="17" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G124" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>213</v>
@@ -10444,28 +10479,28 @@
     </row>
     <row r="125" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A125" s="17" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="I125" s="17" t="s">
         <v>213</v>
@@ -10501,127 +10536,129 @@
       </c>
       <c r="U125" s="19"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
-      <c r="P126" s="12"/>
-      <c r="Q126" s="13"/>
-      <c r="R126" s="12"/>
-      <c r="S126" s="12"/>
-      <c r="T126" s="12"/>
-      <c r="U126" s="14"/>
-    </row>
-    <row r="127" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A127" s="11" t="s">
+    <row r="126" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A126" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J126" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K126" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M126" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N126" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R126" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S126" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T126" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U126" s="19"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="14"/>
+    </row>
+    <row r="128" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A128" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18"/>
-      <c r="T127" s="18"/>
-      <c r="U127" s="18"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A128" s="12" t="s">
+      <c r="B128" s="11"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="18"/>
+      <c r="T128" s="18"/>
+      <c r="U128" s="18"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A129" s="12" t="s">
         <v>445</v>
-      </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K128" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="L128" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="M128" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N128" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O128" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P128" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q128" s="13">
-        <v>42507</v>
-      </c>
-      <c r="R128" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="S128" s="12"/>
-      <c r="T128" s="12"/>
-      <c r="U128" s="14"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A129" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>123</v>
+        <v>445</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>123</v>
+        <v>445</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>21</v>
@@ -10636,49 +10673,49 @@
         <v>23</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>123</v>
+        <v>448</v>
       </c>
       <c r="M129" s="12" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="N129" s="12" t="s">
-        <v>453</v>
+        <v>26</v>
       </c>
       <c r="O129" s="12" t="s">
-        <v>454</v>
+        <v>27</v>
       </c>
       <c r="P129" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q129" s="13">
-        <v>41002</v>
+        <v>42507</v>
       </c>
       <c r="R129" s="12" t="s">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
       <c r="U129" s="14"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.8">
       <c r="A130" s="12" t="s">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>21</v>
@@ -10693,19 +10730,19 @@
         <v>23</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="M130" s="12" t="s">
-        <v>459</v>
+        <v>124</v>
       </c>
       <c r="N130" s="12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="O130" s="12" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="P130" s="12" t="s">
         <v>42</v>
@@ -10720,22 +10757,22 @@
       <c r="T130" s="12"/>
       <c r="U130" s="14"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.8">
       <c r="A131" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>21</v>
@@ -10750,19 +10787,19 @@
         <v>23</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N131" s="12" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="O131" s="12" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P131" s="12" t="s">
         <v>42</v>
@@ -10777,28 +10814,28 @@
       <c r="T131" s="12"/>
       <c r="U131" s="14"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.8">
       <c r="A132" s="12" t="s">
-        <v>174</v>
+        <v>463</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12" t="s">
-        <v>651</v>
+        <v>469</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>174</v>
+        <v>463</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>175</v>
+        <v>464</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>174</v>
+        <v>463</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>650</v>
+        <v>42</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>36</v>
@@ -10807,19 +10844,19 @@
         <v>23</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>174</v>
+        <v>463</v>
       </c>
       <c r="M132" s="12" t="s">
-        <v>177</v>
+        <v>466</v>
       </c>
       <c r="N132" s="12" t="s">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="O132" s="12" t="s">
-        <v>179</v>
+        <v>468</v>
       </c>
       <c r="P132" s="12" t="s">
         <v>42</v>
@@ -10834,30 +10871,28 @@
       <c r="T132" s="12"/>
       <c r="U132" s="14"/>
     </row>
-    <row r="133" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.8">
       <c r="A133" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>487</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B133" s="12"/>
       <c r="C133" s="12" t="s">
-        <v>202</v>
+        <v>651</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>201</v>
+        <v>650</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>36</v>
@@ -10866,86 +10901,122 @@
         <v>23</v>
       </c>
       <c r="K133" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L133" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O133" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q133" s="13">
+        <v>41002</v>
+      </c>
+      <c r="R133" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="14"/>
+    </row>
+    <row r="134" spans="1:22" ht="48" x14ac:dyDescent="0.8">
+      <c r="A134" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L133" s="12" t="s">
+      <c r="L134" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M133" s="12" t="s">
+      <c r="M134" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N133" s="12" t="s">
+      <c r="N134" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="O133" s="12" t="s">
+      <c r="O134" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P133" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q133" s="13">
+      <c r="P134" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q134" s="13">
         <v>42118</v>
       </c>
-      <c r="R133" s="12" t="s">
+      <c r="R134" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S133" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T133" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U133" s="14"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134" s="9"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
-      <c r="R134"/>
-      <c r="S134"/>
-      <c r="T134"/>
-      <c r="U134"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A135" s="3" t="s">
+      <c r="S134" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T134" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U134" s="14"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135" s="9"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A136" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A136" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -10966,18 +11037,18 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A137" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B137" s="4"/>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A137" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B137" s="3"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-      <c r="K137" s="4"/>
+      <c r="K137" s="3"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -10989,9 +11060,9 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.8">
       <c r="A138" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -11012,37 +11083,107 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A139" s="7" t="s">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A139" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A140" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="R139" s="7"/>
-      <c r="S139" s="7"/>
-      <c r="T139" s="7"/>
-      <c r="U139" s="7"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A140" s="5" t="s">
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A141" s="5" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="D143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="P143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="T143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="U143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="V143" s="5" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O67" r:id="rId1" display="murakami.shinya@jaxa.jp" xr:uid="{01DA75B4-19A0-4336-8C87-BE018A8D132A}"/>
+    <hyperlink ref="O68" r:id="rId1" display="murakami.shinya@jaxa.jp" xr:uid="{01DA75B4-19A0-4336-8C87-BE018A8D132A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/docs/namespace-registry/pds-namespace-registry_hidden.xlsx
+++ b/docs/namespace-registry/pds-namespace-registry_hidden.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA7Ontologies\A01PDS4\03_Namespaces\NameSpaceRegistry\250123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA7Ontologies\A01PDS4\03_Namespaces\NameSpaceRegistry\250227\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD896769-56D0-4A7A-83A1-CD04D07365D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED855677-0E92-402C-9D70-854980AFB1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{FAC3036B-2C0F-0A46-BDED-22E3426EC150}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="873">
   <si>
     <t>Namespace Id (1)</t>
   </si>
@@ -2593,6 +2593,57 @@
   </si>
   <si>
     <t>corner</t>
+  </si>
+  <si>
+    <t>giotto</t>
+  </si>
+  <si>
+    <t>vex</t>
+  </si>
+  <si>
+    <t>smart1</t>
+  </si>
+  <si>
+    <t>M. Bentley</t>
+  </si>
+  <si>
+    <t>PDS4_PSA_GIOTTO</t>
+  </si>
+  <si>
+    <t>PDS4_PSA_SMART1</t>
+  </si>
+  <si>
+    <t>PDS4_PSA_VEX</t>
+  </si>
+  <si>
+    <t>Namespace for the Venus Express Mission schema.</t>
+  </si>
+  <si>
+    <t>Venus Express Mission</t>
+  </si>
+  <si>
+    <t>http://psa.esa.int/psa/vex/v1</t>
+  </si>
+  <si>
+    <t>http://psa.esa.int/psa/smart1/v1</t>
+  </si>
+  <si>
+    <t>http://psa.esa.int/psa/giotto/v1</t>
+  </si>
+  <si>
+    <t>Mark Bentley</t>
+  </si>
+  <si>
+    <t>Namespace for the Small Missions for Advanced Research in Technology mission schema.</t>
+  </si>
+  <si>
+    <t>Giotto Mission</t>
+  </si>
+  <si>
+    <t>Namespace for the Giotto Mission schema.</t>
+  </si>
+  <si>
+    <t>Small Missions for Advanced Research in Technology Mission</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2771,16 +2822,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3099,12 +3140,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="D1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
@@ -3137,7 +3178,7 @@
         <v>848</v>
       </c>
       <c r="B1" s="21">
-        <v>45618</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="48" x14ac:dyDescent="0.8">
@@ -3782,68 +3823,68 @@
       </c>
       <c r="U13" s="14"/>
     </row>
-    <row r="14" spans="1:21" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.8">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+      <c r="A14" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="12" t="s">
         <v>851</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="13">
         <v>45680</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="S14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="24"/>
+      <c r="S14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A15" s="12" t="s">
@@ -10596,240 +10637,252 @@
       <c r="U126" s="19"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="12"/>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="13"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="12"/>
-      <c r="U127" s="14"/>
-    </row>
-    <row r="128" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A128" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-      <c r="Q128" s="18"/>
-      <c r="R128" s="18"/>
-      <c r="S128" s="18"/>
-      <c r="T128" s="18"/>
-      <c r="U128" s="18"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A129" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K129" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="L129" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="M129" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O129" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P129" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q129" s="13">
-        <v>42507</v>
-      </c>
-      <c r="R129" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
-      <c r="U129" s="14"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A130" s="12" t="s">
-        <v>123</v>
-      </c>
+      <c r="A127" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J127" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K127" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="L127" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="M127" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="N127" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O127" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="20">
+        <v>45715</v>
+      </c>
+      <c r="R127" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="S127" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T127" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U127" s="19"/>
+    </row>
+    <row r="128" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+      <c r="A128" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="I128" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K128" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="L128" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="M128" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="N128" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O128" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="20">
+        <v>45715</v>
+      </c>
+      <c r="R128" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="S128" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T128" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U128" s="19"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A129" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="I129" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K129" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="L129" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="M129" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="N129" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O129" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="20">
+        <v>45715</v>
+      </c>
+      <c r="R129" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="S129" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T129" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U129" s="19"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A130" s="12"/>
       <c r="B130" s="12"/>
-      <c r="C130" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J130" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K130" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="L130" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M130" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N130" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="O130" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="P130" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q130" s="13">
-        <v>41002</v>
-      </c>
-      <c r="R130" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="13"/>
+      <c r="R130" s="12"/>
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
       <c r="U130" s="14"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A131" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="L131" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="M131" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="N131" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="O131" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="P131" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q131" s="13">
-        <v>41002</v>
-      </c>
-      <c r="R131" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S131" s="12"/>
-      <c r="T131" s="12"/>
-      <c r="U131" s="14"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="131" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A131" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="18"/>
+      <c r="U131" s="18"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A132" s="12" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>21</v>
@@ -10844,55 +10897,55 @@
         <v>23</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="M132" s="12" t="s">
-        <v>466</v>
+        <v>25</v>
       </c>
       <c r="N132" s="12" t="s">
-        <v>467</v>
+        <v>26</v>
       </c>
       <c r="O132" s="12" t="s">
-        <v>468</v>
+        <v>27</v>
       </c>
       <c r="P132" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q132" s="13">
-        <v>41002</v>
+        <v>42507</v>
       </c>
       <c r="R132" s="12" t="s">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
       <c r="U132" s="14"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A133" s="12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="12" t="s">
-        <v>651</v>
+        <v>455</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>175</v>
+        <v>451</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>650</v>
+        <v>42</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>36</v>
@@ -10901,19 +10954,19 @@
         <v>23</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>176</v>
+        <v>452</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="M133" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N133" s="12" t="s">
-        <v>178</v>
+        <v>453</v>
       </c>
       <c r="O133" s="12" t="s">
-        <v>179</v>
+        <v>454</v>
       </c>
       <c r="P133" s="12" t="s">
         <v>42</v>
@@ -10928,30 +10981,28 @@
       <c r="T133" s="12"/>
       <c r="U133" s="14"/>
     </row>
-    <row r="134" spans="1:22" ht="48" x14ac:dyDescent="0.8">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A134" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>487</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B134" s="12"/>
       <c r="C134" s="12" t="s">
-        <v>202</v>
+        <v>462</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>36</v>
@@ -10960,141 +11011,245 @@
         <v>23</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>89</v>
+        <v>456</v>
       </c>
       <c r="M134" s="12" t="s">
-        <v>90</v>
+        <v>459</v>
       </c>
       <c r="N134" s="12" t="s">
-        <v>91</v>
+        <v>460</v>
       </c>
       <c r="O134" s="12" t="s">
-        <v>92</v>
+        <v>461</v>
       </c>
       <c r="P134" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q134" s="13">
+        <v>41002</v>
+      </c>
+      <c r="R134" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="14"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A135" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="L135" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="N135" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="O135" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="P135" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>41002</v>
+      </c>
+      <c r="R135" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="14"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A136" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K136" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L136" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N136" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O136" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P136" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q136" s="13">
+        <v>41002</v>
+      </c>
+      <c r="R136" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="14"/>
+    </row>
+    <row r="137" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+      <c r="A137" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L137" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N137" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O137" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P137" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q137" s="13">
         <v>42118</v>
       </c>
-      <c r="R134" s="12" t="s">
+      <c r="R137" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S134" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T134" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U134" s="14"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135" s="9"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
-      <c r="R135"/>
-      <c r="S135"/>
-      <c r="T135"/>
-      <c r="U135"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A136" s="3" t="s">
+      <c r="S137" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T137" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U137" s="14"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138" s="9"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A139" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A137" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A138" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A139" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B139" s="4"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
-      <c r="K139" s="4"/>
+      <c r="K139" s="3"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
@@ -11106,78 +11261,147 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A140" s="7" t="s">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A140" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A141" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A142" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A143" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="R140" s="7"/>
-      <c r="S140" s="7"/>
-      <c r="T140" s="7"/>
-      <c r="U140" s="7"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="A141" s="5" t="s">
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="7"/>
+      <c r="T143" s="7"/>
+      <c r="U143" s="7"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A144" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.8">
-      <c r="D143" s="5" t="s">
+    <row r="146" spans="4:22" x14ac:dyDescent="0.8">
+      <c r="D146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E146" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="G146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="J143" s="5" t="s">
+      <c r="J146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="K143" s="5" t="s">
+      <c r="K146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="L143" s="5" t="s">
+      <c r="L146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="M143" s="5" t="s">
+      <c r="M146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="P143" s="5" t="s">
+      <c r="P146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="R143" s="5" t="s">
+      <c r="R146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="S143" s="5" t="s">
+      <c r="S146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="T143" s="5" t="s">
+      <c r="T146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="U143" s="5" t="s">
+      <c r="U146" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="V143" s="5" t="s">
+      <c r="V146" s="5" t="s">
         <v>855</v>
       </c>
     </row>

--- a/docs/namespace-registry/pds-namespace-registry_hidden.xlsx
+++ b/docs/namespace-registry/pds-namespace-registry_hidden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA7Ontologies\A01PDS4\03_Namespaces\NameSpaceRegistry\250227\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA7Ontologies\A01PDS4\03_Namespaces\NameSpaceRegistry\250730_dscovr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED855677-0E92-402C-9D70-854980AFB1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B0BC23-1DC2-4669-A552-DF873ABB3C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{FAC3036B-2C0F-0A46-BDED-22E3426EC150}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{FAC3036B-2C0F-0A46-BDED-22E3426EC150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="957">
   <si>
     <t>Namespace Id (1)</t>
   </si>
@@ -2644,6 +2644,258 @@
   </si>
   <si>
     <t>Small Missions for Advanced Research in Technology Mission</t>
+  </si>
+  <si>
+    <t>sln</t>
+  </si>
+  <si>
+    <t>mission/sln</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/sln/v1</t>
+  </si>
+  <si>
+    <t>PDS4_SLN</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>mission/slim</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/slim/v1</t>
+  </si>
+  <si>
+    <t>hisaki</t>
+  </si>
+  <si>
+    <t>mission/hisaki</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/hisaki/v1</t>
+  </si>
+  <si>
+    <t>PDS4_SLIM</t>
+  </si>
+  <si>
+    <t>PDS4_HISAKI</t>
+  </si>
+  <si>
+    <t>mmx</t>
+  </si>
+  <si>
+    <t>mission/mmx</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/mmx/v1</t>
+  </si>
+  <si>
+    <t>PDS4_MMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaguya (SELENE)</t>
+  </si>
+  <si>
+    <t>Smart Lander for Investigating Moon</t>
+  </si>
+  <si>
+    <t>Hisaki (SPRINT-A)</t>
+  </si>
+  <si>
+    <t>Martian Moons eXploration</t>
+  </si>
+  <si>
+    <t>Namespace for the Kaguya (SELENE) dictionary.</t>
+  </si>
+  <si>
+    <t>Namespace for the Smart Lander for Investigating Moon (SLIM) dictionary.</t>
+  </si>
+  <si>
+    <t>Namespace for the Martian Moons eXploration dictionary.</t>
+  </si>
+  <si>
+    <t>Namespace for the Hisaki dictionary.</t>
+  </si>
+  <si>
+    <t>bc_mmo_msasi</t>
+  </si>
+  <si>
+    <t>bc_mmo_pwi</t>
+  </si>
+  <si>
+    <t>bc_mmo_mgf</t>
+  </si>
+  <si>
+    <t>bc_mmo_mppe</t>
+  </si>
+  <si>
+    <t>bc_mmo_mdm</t>
+  </si>
+  <si>
+    <t>bc_mmo_spm</t>
+  </si>
+  <si>
+    <t>Namespace for the BepiColombo MSASI schema.</t>
+  </si>
+  <si>
+    <t>Namespace for the BepiColombo PWI schema.</t>
+  </si>
+  <si>
+    <t>Namespace for the BepiColombo MGF schema.</t>
+  </si>
+  <si>
+    <t>Namespace for the BepiColombo MPPE schema.</t>
+  </si>
+  <si>
+    <t>Namespace for the BepiColombo MDM schema.</t>
+  </si>
+  <si>
+    <t>Namespace for the BepiColombo SPM schema.</t>
+  </si>
+  <si>
+    <t>mission/bc/mmo/msasi/v1</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/bc/mmo/msasi/v1</t>
+  </si>
+  <si>
+    <t>mission/bc/mmo/pwi/v1</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/bc/mmo/pwi/v1</t>
+  </si>
+  <si>
+    <t>mission/bc/mmo/mgf/v1</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/bc/mmo/mgf/v1</t>
+  </si>
+  <si>
+    <t>mission/bc/mmo/mppe/v1</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/bc/mmo/mppe/v1</t>
+  </si>
+  <si>
+    <t>mission/bc/mmo/mdm/v1</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/bc/mmo/mdm/v1</t>
+  </si>
+  <si>
+    <t>mission/bc/mmo/spm/v1</t>
+  </si>
+  <si>
+    <t>http://darts.isas.jaxa.jp/pds4/mission/bc/mmo/spm/v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc_mmo_mdm </t>
+  </si>
+  <si>
+    <t>PDS4_BC_MMO_MSASI</t>
+  </si>
+  <si>
+    <t>PDS4_BC_MMO_PWI</t>
+  </si>
+  <si>
+    <t>PDS4_BC_MMO_MGF</t>
+  </si>
+  <si>
+    <t>PDS4_BC_MMO_MPPE</t>
+  </si>
+  <si>
+    <t>BepiColombo MCAM</t>
+  </si>
+  <si>
+    <t>BepiColombo BELA</t>
+  </si>
+  <si>
+    <t>BepiColombo BERM</t>
+  </si>
+  <si>
+    <t>BepiColombo ISA</t>
+  </si>
+  <si>
+    <t>BepiColombo MPO-MAG</t>
+  </si>
+  <si>
+    <t>BepiColombo MERTIS</t>
+  </si>
+  <si>
+    <t>BepiColombo MGNS</t>
+  </si>
+  <si>
+    <t>BepiColombo MIXS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BepiColombo MORE </t>
+  </si>
+  <si>
+    <t>BepiColombo PHEBUS</t>
+  </si>
+  <si>
+    <t>BepiColombo SERENA</t>
+  </si>
+  <si>
+    <t>BepiColombo SIMBIO-SYS</t>
+  </si>
+  <si>
+    <t>BepiColombo SIXS</t>
+  </si>
+  <si>
+    <t>BepiColombo MSASI</t>
+  </si>
+  <si>
+    <t>BepiColombo PWI</t>
+  </si>
+  <si>
+    <t>BepiColombo MGF</t>
+  </si>
+  <si>
+    <t>BepiColombo MPPE</t>
+  </si>
+  <si>
+    <t>BepiColombo MDM</t>
+  </si>
+  <si>
+    <t>BepiColombo SPM</t>
+  </si>
+  <si>
+    <t>PDS4_BC_MMO_MDM</t>
+  </si>
+  <si>
+    <t>PDS4_BC_MMO_SPM</t>
+  </si>
+  <si>
+    <t>dscovr</t>
+  </si>
+  <si>
+    <t>mission/dscovr</t>
+  </si>
+  <si>
+    <t>http://pds.nasa.gov/pds4/mission/dscovr/v1</t>
+  </si>
+  <si>
+    <t>PDS4_DSCOVR</t>
+  </si>
+  <si>
+    <t>DSCOVR Mission</t>
+  </si>
+  <si>
+    <t>The DSCOVR Mission Data Dictionary contains classes and attributes that describe data products from the DSCOVR (Deep Space Climate Observatory) mission.</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>Bob Deen</t>
+  </si>
+  <si>
+    <t>Bob.Deen at jpl.nasa.gov</t>
+  </si>
+  <si>
+    <t>B. Deen</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3392,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V146"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3153,9 +3405,9 @@
     <col min="1" max="1" width="14.2890625" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.7890625" style="5" customWidth="1"/>
     <col min="3" max="3" width="53.7890625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="46.20703125" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.2890625" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.2890625" style="5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.2890625" style="5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="22.7890625" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.2890625" style="5" customWidth="1"/>
@@ -3164,7 +3416,7 @@
     <col min="12" max="12" width="13.20703125" style="5" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.7890625" style="5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="5" customWidth="1"/>
-    <col min="15" max="15" width="38.70703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" style="5" customWidth="1"/>
     <col min="16" max="16" width="10.20703125" style="5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16.20703125" style="8" customWidth="1"/>
     <col min="18" max="18" width="14.20703125" style="5" hidden="1" customWidth="1"/>
@@ -3178,7 +3430,7 @@
         <v>848</v>
       </c>
       <c r="B1" s="21">
-        <v>45715</v>
+        <v>45868</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="48" x14ac:dyDescent="0.8">
@@ -5673,30 +5925,30 @@
       </c>
       <c r="U43" s="14"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="44" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A44" s="12" t="s">
-        <v>585</v>
+        <v>947</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>589</v>
+        <v>951</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>590</v>
+        <v>952</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>587</v>
+        <v>948</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>949</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>585</v>
+        <v>947</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>588</v>
+        <v>950</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>213</v>
@@ -5705,28 +5957,28 @@
         <v>23</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>169</v>
+        <v>953</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>581</v>
+        <v>954</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>582</v>
+        <v>955</v>
       </c>
       <c r="P44" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="13">
-        <v>44707</v>
+        <v>45868</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>591</v>
+        <v>956</v>
       </c>
       <c r="S44" s="12" t="s">
         <v>31</v>
@@ -5736,30 +5988,30 @@
       </c>
       <c r="U44" s="14"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="45" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A45" s="12" t="s">
-        <v>220</v>
+        <v>880</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>618</v>
+        <v>891</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>223</v>
+        <v>896</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>703</v>
+        <v>881</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>882</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>220</v>
+        <v>880</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>222</v>
+        <v>884</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>213</v>
@@ -5768,7 +6020,7 @@
         <v>37</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>33</v>
@@ -5777,19 +6029,19 @@
         <v>698</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>41</v>
+        <v>699</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P45" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q45" s="13">
-        <v>44193</v>
+        <v>45742</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>518</v>
+        <v>699</v>
       </c>
       <c r="S45" s="12" t="s">
         <v>31</v>
@@ -5799,30 +6051,30 @@
       </c>
       <c r="U45" s="14"/>
     </row>
-    <row r="46" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A46" s="12" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>626</v>
+        <v>586</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>587</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>213</v>
@@ -5831,28 +6083,28 @@
         <v>23</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>535</v>
+        <v>169</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>628</v>
+        <v>582</v>
       </c>
       <c r="P46" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q46" s="13">
-        <v>44735</v>
+        <v>44707</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="S46" s="12" t="s">
         <v>31</v>
@@ -5862,60 +6114,60 @@
       </c>
       <c r="U46" s="14"/>
     </row>
-    <row r="47" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A47" s="12" t="s">
-        <v>561</v>
+        <v>220</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>562</v>
+        <v>223</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>564</v>
+        <v>221</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>561</v>
+        <v>220</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>543</v>
+        <v>34</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>538</v>
+        <v>222</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>544</v>
+        <v>37</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>561</v>
+        <v>702</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>537</v>
+        <v>33</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>546</v>
+        <v>698</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>565</v>
+        <v>40</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>566</v>
+        <v>41</v>
       </c>
       <c r="P47" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q47" s="13">
-        <v>44426</v>
+        <v>44193</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="S47" s="12" t="s">
         <v>31</v>
@@ -5925,30 +6177,30 @@
       </c>
       <c r="U47" s="14"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="48" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A48" s="12" t="s">
-        <v>224</v>
+        <v>624</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>229</v>
+        <v>630</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>226</v>
+        <v>625</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>626</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>224</v>
+        <v>624</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>227</v>
+        <v>629</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>213</v>
@@ -5957,28 +6209,28 @@
         <v>23</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>228</v>
+        <v>535</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>190</v>
+        <v>609</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>191</v>
+        <v>628</v>
       </c>
       <c r="P48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q48" s="13">
-        <v>42119</v>
+        <v>44735</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>193</v>
+        <v>627</v>
       </c>
       <c r="S48" s="12" t="s">
         <v>31</v>
@@ -5988,60 +6240,60 @@
       </c>
       <c r="U48" s="14"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="49" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A49" s="12" t="s">
-        <v>230</v>
+        <v>561</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>233</v>
+        <v>563</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>234</v>
+        <v>562</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>232</v>
+        <v>564</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>720</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>230</v>
+        <v>561</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>233</v>
+        <v>538</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>23</v>
+        <v>544</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>233</v>
+        <v>561</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>95</v>
+        <v>537</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>99</v>
+        <v>546</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>100</v>
+        <v>565</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>101</v>
+        <v>566</v>
       </c>
       <c r="P49" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q49" s="13">
-        <v>41837</v>
+        <v>44426</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>235</v>
+        <v>541</v>
       </c>
       <c r="S49" s="12" t="s">
         <v>31</v>
@@ -6053,28 +6305,28 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A50" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>233</v>
+        <v>611</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>213</v>
@@ -6083,28 +6335,28 @@
         <v>23</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q50" s="13">
-        <v>41837</v>
+        <v>42119</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="S50" s="12" t="s">
         <v>31</v>
@@ -6116,28 +6368,28 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A51" s="12" t="s">
-        <v>843</v>
+        <v>230</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>846</v>
+        <v>233</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>847</v>
+        <v>234</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>845</v>
+        <v>231</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>843</v>
+        <v>230</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>846</v>
+        <v>233</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>213</v>
@@ -6146,28 +6398,28 @@
         <v>23</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>846</v>
+        <v>233</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>637</v>
+        <v>100</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>638</v>
+        <v>101</v>
       </c>
       <c r="P51" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q51" s="13">
-        <v>45612</v>
+        <v>41837</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>637</v>
+        <v>235</v>
       </c>
       <c r="S51" s="12" t="s">
         <v>31</v>
@@ -6179,28 +6431,28 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A52" s="12" t="s">
-        <v>555</v>
+        <v>230</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>557</v>
+        <v>233</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>558</v>
+        <v>237</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>559</v>
+        <v>230</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>555</v>
+        <v>230</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>560</v>
+        <v>233</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>213</v>
@@ -6209,28 +6461,28 @@
         <v>23</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>560</v>
+        <v>233</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="P52" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q52" s="13">
-        <v>44608</v>
+        <v>41837</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="S52" s="12" t="s">
         <v>31</v>
@@ -6242,28 +6494,28 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A53" s="12" t="s">
-        <v>660</v>
+        <v>843</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>661</v>
+        <v>846</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>662</v>
+        <v>847</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>675</v>
+        <v>844</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>663</v>
+        <v>845</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>660</v>
+        <v>843</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>664</v>
+        <v>846</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>213</v>
@@ -6272,28 +6524,28 @@
         <v>23</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>535</v>
+        <v>846</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="P53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q53" s="13">
-        <v>44957</v>
+        <v>45612</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="S53" s="12" t="s">
         <v>31</v>
@@ -6305,28 +6557,28 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A54" s="12" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>510</v>
+        <v>676</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>559</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>213</v>
@@ -6335,7 +6587,7 @@
         <v>23</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>123</v>
@@ -6353,7 +6605,7 @@
         <v>42</v>
       </c>
       <c r="Q54" s="13">
-        <v>44333</v>
+        <v>44608</v>
       </c>
       <c r="R54" s="12" t="s">
         <v>193</v>
@@ -6368,28 +6620,28 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A55" s="12" t="s">
-        <v>238</v>
+        <v>660</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>242</v>
+        <v>662</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>240</v>
+        <v>675</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>663</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>238</v>
+        <v>660</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>514</v>
+        <v>664</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>213</v>
@@ -6398,28 +6650,28 @@
         <v>23</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>241</v>
+        <v>535</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>190</v>
+        <v>665</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>191</v>
+        <v>666</v>
       </c>
       <c r="P55" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q55" s="13">
-        <v>43935</v>
+        <v>44957</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>193</v>
+        <v>667</v>
       </c>
       <c r="S55" s="12" t="s">
         <v>31</v>
@@ -6431,28 +6683,28 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A56" s="12" t="s">
-        <v>687</v>
+        <v>508</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>693</v>
+        <v>512</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>689</v>
+        <v>509</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>687</v>
+        <v>508</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>691</v>
+        <v>513</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>213</v>
@@ -6461,7 +6713,7 @@
         <v>23</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>690</v>
+        <v>511</v>
       </c>
       <c r="L56" s="12" t="s">
         <v>123</v>
@@ -6470,19 +6722,19 @@
         <v>124</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>637</v>
+        <v>190</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>638</v>
+        <v>191</v>
       </c>
       <c r="P56" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q56" s="13">
-        <v>45146</v>
+        <v>44333</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>636</v>
+        <v>193</v>
       </c>
       <c r="S56" s="12" t="s">
         <v>31</v>
@@ -6494,28 +6746,28 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A57" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>213</v>
@@ -6524,28 +6776,28 @@
         <v>23</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="P57" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q57" s="13">
-        <v>41600</v>
+        <v>43935</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="S57" s="12" t="s">
         <v>31</v>
@@ -6557,28 +6809,28 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A58" s="12" t="s">
-        <v>248</v>
+        <v>687</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>252</v>
+        <v>693</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>250</v>
+        <v>688</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>689</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>248</v>
+        <v>687</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>516</v>
+        <v>691</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>213</v>
@@ -6587,28 +6839,28 @@
         <v>23</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>251</v>
+        <v>690</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>109</v>
+        <v>637</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>110</v>
+        <v>638</v>
       </c>
       <c r="P58" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q58" s="13">
-        <v>42220</v>
+        <v>45146</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>253</v>
+        <v>636</v>
       </c>
       <c r="S58" s="12" t="s">
         <v>31</v>
@@ -6620,28 +6872,28 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A59" s="12" t="s">
-        <v>668</v>
+        <v>243</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>669</v>
+        <v>614</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>670</v>
+        <v>247</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>671</v>
+        <v>244</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>672</v>
+        <v>245</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>668</v>
+        <v>243</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>673</v>
+        <v>515</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>213</v>
@@ -6650,28 +6902,28 @@
         <v>23</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>674</v>
+        <v>246</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>637</v>
+        <v>109</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>638</v>
+        <v>110</v>
       </c>
       <c r="P59" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q59" s="13">
-        <v>44951</v>
+        <v>41600</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>636</v>
+        <v>132</v>
       </c>
       <c r="S59" s="12" t="s">
         <v>31</v>
@@ -6681,60 +6933,60 @@
       </c>
       <c r="U59" s="14"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="60" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A60" s="12" t="s">
-        <v>254</v>
+        <v>885</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>612</v>
+        <v>892</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>259</v>
+        <v>895</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>256</v>
+        <v>886</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>887</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>254</v>
+        <v>885</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>257</v>
+        <v>888</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>258</v>
+        <v>698</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>90</v>
+        <v>698</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>92</v>
+        <v>699</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P60" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q60" s="13">
-        <v>42158</v>
+        <v>45742</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>207</v>
+        <v>699</v>
       </c>
       <c r="S60" s="12" t="s">
         <v>31</v>
@@ -6746,28 +6998,28 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A61" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>257</v>
+        <v>516</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>213</v>
@@ -6776,28 +7028,28 @@
         <v>23</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P61" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q61" s="13">
-        <v>42158</v>
+        <v>42220</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="S61" s="12" t="s">
         <v>31</v>
@@ -6807,30 +7059,30 @@
       </c>
       <c r="U61" s="14"/>
     </row>
-    <row r="62" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A62" s="12" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>643</v>
+        <v>671</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>672</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>213</v>
@@ -6839,7 +7091,7 @@
         <v>23</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="L62" s="12" t="s">
         <v>123</v>
@@ -6857,7 +7109,7 @@
         <v>42</v>
       </c>
       <c r="Q62" s="13">
-        <v>44833</v>
+        <v>44951</v>
       </c>
       <c r="R62" s="12" t="s">
         <v>636</v>
@@ -6870,30 +7122,30 @@
       </c>
       <c r="U62" s="14"/>
     </row>
-    <row r="63" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A63" s="12" t="s">
-        <v>600</v>
+        <v>254</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>604</v>
+        <v>259</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>602</v>
+        <v>255</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>600</v>
+        <v>254</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>605</v>
+        <v>257</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>213</v>
@@ -6902,28 +7154,28 @@
         <v>23</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>606</v>
+        <v>258</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>609</v>
+        <v>91</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>610</v>
+        <v>92</v>
       </c>
       <c r="P63" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q63" s="13">
-        <v>44713</v>
+        <v>42158</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>609</v>
+        <v>207</v>
       </c>
       <c r="S63" s="12" t="s">
         <v>31</v>
@@ -6935,28 +7187,28 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A64" s="12" t="s">
-        <v>547</v>
+        <v>254</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>548</v>
+        <v>261</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>550</v>
+        <v>254</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>547</v>
+        <v>254</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>552</v>
+        <v>257</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>213</v>
@@ -6965,28 +7217,28 @@
         <v>23</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>553</v>
+        <v>258</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>681</v>
+        <v>90</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="P64" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q64" s="13">
-        <v>43871</v>
+        <v>42158</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>551</v>
+        <v>207</v>
       </c>
       <c r="S64" s="12" t="s">
         <v>31</v>
@@ -6998,28 +7250,28 @@
     </row>
     <row r="65" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A65" s="12" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>569</v>
+        <v>642</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>213</v>
@@ -7028,28 +7280,28 @@
         <v>23</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="P65" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q65" s="13">
-        <v>44643</v>
+        <v>44833</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>185</v>
+        <v>636</v>
       </c>
       <c r="S65" s="12" t="s">
         <v>31</v>
@@ -7059,30 +7311,30 @@
       </c>
       <c r="U65" s="14"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="66" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A66" s="12" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>684</v>
+        <v>605</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>213</v>
@@ -7091,19 +7343,19 @@
         <v>23</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="P66" s="12" t="s">
         <v>42</v>
@@ -7112,7 +7364,7 @@
         <v>44713</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="S66" s="12" t="s">
         <v>31</v>
@@ -7124,28 +7376,28 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A67" s="12" t="s">
-        <v>262</v>
+        <v>547</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>268</v>
+        <v>548</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>264</v>
+        <v>549</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>550</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>262</v>
+        <v>547</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>42</v>
+        <v>552</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>213</v>
@@ -7154,7 +7406,7 @@
         <v>23</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>265</v>
+        <v>553</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>218</v>
@@ -7172,10 +7424,10 @@
         <v>42</v>
       </c>
       <c r="Q67" s="13">
-        <v>41771</v>
+        <v>43871</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>185</v>
+        <v>551</v>
       </c>
       <c r="S67" s="12" t="s">
         <v>31</v>
@@ -7187,58 +7439,58 @@
     </row>
     <row r="68" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A68" s="12" t="s">
-        <v>694</v>
+        <v>567</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>701</v>
+        <v>575</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>697</v>
+        <v>574</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>704</v>
+        <v>568</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>569</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>694</v>
+        <v>567</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>696</v>
+        <v>572</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>698</v>
+        <v>573</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>698</v>
+        <v>177</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>700</v>
+        <v>570</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>571</v>
       </c>
       <c r="P68" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q68" s="13">
-        <v>45914</v>
+        <v>44643</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>699</v>
+        <v>185</v>
       </c>
       <c r="S68" s="12" t="s">
         <v>31</v>
@@ -7250,28 +7502,28 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A69" s="12" t="s">
-        <v>677</v>
+        <v>592</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>686</v>
+        <v>597</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>679</v>
+        <v>593</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>594</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>677</v>
+        <v>592</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>213</v>
@@ -7280,28 +7532,28 @@
         <v>23</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>682</v>
+        <v>595</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>218</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>681</v>
+        <v>177</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>266</v>
+        <v>598</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>267</v>
+        <v>599</v>
       </c>
       <c r="P69" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q69" s="13">
-        <v>45014</v>
+        <v>44713</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>680</v>
+        <v>598</v>
       </c>
       <c r="S69" s="12" t="s">
         <v>31</v>
@@ -7313,28 +7565,28 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A70" s="12" t="s">
-        <v>705</v>
+        <v>262</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>707</v>
+        <v>619</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>710</v>
+        <v>268</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>714</v>
+        <v>263</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>705</v>
+        <v>262</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>716</v>
+        <v>42</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>213</v>
@@ -7343,28 +7595,28 @@
         <v>23</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>718</v>
+        <v>265</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>90</v>
+        <v>681</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="P70" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q70" s="13">
-        <v>45203</v>
+        <v>41771</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="S70" s="12" t="s">
         <v>31</v>
@@ -7376,28 +7628,28 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A71" s="12" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>213</v>
@@ -7406,28 +7658,28 @@
         <v>23</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>90</v>
+        <v>681</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="P71" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q71" s="13">
-        <v>45203</v>
+        <v>45014</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>207</v>
+        <v>680</v>
       </c>
       <c r="S71" s="12" t="s">
         <v>31</v>
@@ -7437,60 +7689,60 @@
       </c>
       <c r="U71" s="14"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="72" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A72" s="12" t="s">
-        <v>576</v>
+        <v>877</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>577</v>
+        <v>890</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>709</v>
+        <v>894</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>579</v>
+        <v>878</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>879</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>576</v>
+        <v>877</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>583</v>
+        <v>883</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>580</v>
+        <v>698</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>170</v>
+        <v>698</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="O72" s="12" t="s">
-        <v>582</v>
+        <v>699</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P72" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q72" s="13">
-        <v>44700</v>
+        <v>45742</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>584</v>
+        <v>699</v>
       </c>
       <c r="S72" s="12" t="s">
         <v>31</v>
@@ -7500,60 +7752,60 @@
       </c>
       <c r="U72" s="14"/>
     </row>
-    <row r="73" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="73" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A73" s="12" t="s">
-        <v>731</v>
+        <v>873</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>736</v>
+        <v>889</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>737</v>
+        <v>893</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>732</v>
+        <v>874</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>733</v>
+        <v>875</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>731</v>
+        <v>873</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>735</v>
+        <v>876</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>124</v>
+        <v>698</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>738</v>
+        <v>699</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q73" s="13">
-        <v>45489</v>
+        <v>45742</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>636</v>
+        <v>699</v>
       </c>
       <c r="S73" s="12" t="s">
         <v>31</v>
@@ -7565,58 +7817,58 @@
     </row>
     <row r="74" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A74" s="12" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>124</v>
+        <v>698</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>727</v>
+        <v>699</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P74" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q74" s="13">
-        <v>45031</v>
+        <v>45914</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="S74" s="12" t="s">
         <v>31</v>
@@ -7626,317 +7878,345 @@
       </c>
       <c r="U74" s="14"/>
     </row>
-    <row r="75" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A75" s="12" t="s">
-        <v>269</v>
+        <v>705</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>275</v>
+        <v>710</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>270</v>
+        <v>712</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>714</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>269</v>
+        <v>705</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>272</v>
+        <v>716</v>
       </c>
       <c r="I75" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>269</v>
+        <v>718</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="P75" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q75" s="13">
-        <v>43788</v>
+        <v>45203</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="S75" s="12" t="s">
         <v>31</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U75" s="14"/>
     </row>
-    <row r="76" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A76" s="12" t="s">
-        <v>277</v>
+        <v>706</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12" t="s">
-        <v>278</v>
+        <v>711</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>715</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>279</v>
+        <v>706</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>280</v>
+        <v>717</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>269</v>
+        <v>719</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="O76" s="12" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="P76" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q76" s="13">
-        <v>43788</v>
+        <v>45203</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="S76" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U76" s="14"/>
     </row>
-    <row r="77" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A77" s="12" t="s">
-        <v>284</v>
+        <v>576</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12" t="s">
-        <v>285</v>
+        <v>709</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>579</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>286</v>
+        <v>576</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>287</v>
+        <v>583</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="N77" s="12" t="s">
-        <v>273</v>
+        <v>581</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>281</v>
+        <v>582</v>
       </c>
       <c r="P77" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q77" s="13">
-        <v>43788</v>
+        <v>44700</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>283</v>
+        <v>584</v>
       </c>
       <c r="S77" s="12" t="s">
         <v>31</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U77" s="14"/>
     </row>
-    <row r="78" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+    <row r="78" spans="1:21" ht="48" x14ac:dyDescent="0.8">
       <c r="A78" s="12" t="s">
-        <v>289</v>
+        <v>731</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>620</v>
+        <v>736</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12" t="s">
-        <v>290</v>
+        <v>737</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>733</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>291</v>
+        <v>731</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>292</v>
+        <v>735</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="N78" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="O78" s="12" t="s">
-        <v>281</v>
+        <v>637</v>
+      </c>
+      <c r="O78" s="17" t="s">
+        <v>738</v>
       </c>
       <c r="P78" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q78" s="13">
-        <v>43788</v>
+        <v>45489</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>283</v>
+        <v>636</v>
       </c>
       <c r="S78" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U78" s="14"/>
     </row>
     <row r="79" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A79" s="12" t="s">
-        <v>294</v>
+        <v>721</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>620</v>
+        <v>724</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12" t="s">
-        <v>295</v>
+        <v>730</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>723</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>296</v>
+        <v>721</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>297</v>
+        <v>725</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="N79" s="12" t="s">
-        <v>273</v>
+        <v>729</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>281</v>
+        <v>727</v>
       </c>
       <c r="P79" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q79" s="13">
-        <v>43788</v>
+        <v>45031</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
       <c r="S79" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U79" s="14"/>
     </row>
     <row r="80" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A80" s="12" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>620</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D80" s="12"/>
+        <v>275</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="E80" s="12" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>213</v>
@@ -7944,14 +8224,20 @@
       <c r="J80" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
+      <c r="K80" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="N80" s="12" t="s">
         <v>273</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P80" s="12" t="s">
         <v>42</v>
@@ -7960,10 +8246,10 @@
         <v>43788</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>283</v>
+        <v>65</v>
       </c>
       <c r="S80" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T80" s="12" t="s">
         <v>276</v>
@@ -7972,26 +8258,26 @@
     </row>
     <row r="81" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A81" s="12" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>620</v>
+        <v>926</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>213</v>
@@ -7999,9 +8285,15 @@
       <c r="J81" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
+      <c r="K81" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="N81" s="12" t="s">
         <v>273</v>
       </c>
@@ -8027,26 +8319,26 @@
     </row>
     <row r="82" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A82" s="12" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>620</v>
+        <v>927</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>213</v>
@@ -8073,7 +8365,7 @@
         <v>283</v>
       </c>
       <c r="S82" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T82" s="12" t="s">
         <v>276</v>
@@ -8082,26 +8374,26 @@
     </row>
     <row r="83" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A83" s="12" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>620</v>
+        <v>928</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="I83" s="12" t="s">
         <v>213</v>
@@ -8137,26 +8429,26 @@
     </row>
     <row r="84" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A84" s="12" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>620</v>
+        <v>929</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>213</v>
@@ -8192,26 +8484,26 @@
     </row>
     <row r="85" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A85" s="12" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>620</v>
+        <v>930</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>213</v>
@@ -8247,26 +8539,26 @@
     </row>
     <row r="86" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A86" s="12" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>620</v>
+        <v>931</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>213</v>
@@ -8302,26 +8594,26 @@
     </row>
     <row r="87" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A87" s="12" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>620</v>
+        <v>932</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>213</v>
@@ -8357,26 +8649,26 @@
     </row>
     <row r="88" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A88" s="12" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>620</v>
+        <v>933</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="I88" s="12" t="s">
         <v>213</v>
@@ -8412,84 +8704,96 @@
     </row>
     <row r="89" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A89" s="12" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>621</v>
+        <v>934</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>345</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D89" s="12"/>
       <c r="E89" s="12" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="I89" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>348</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="P89" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q89" s="13">
-        <v>44111</v>
+        <v>43788</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="S89" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="U89" s="14"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
+    <row r="90" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A90" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>328</v>
+      </c>
       <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
+      <c r="E90" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
+      <c r="N90" s="12" t="s">
+        <v>273</v>
+      </c>
       <c r="O90" s="12" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="P90" s="12" t="s">
         <v>42</v>
@@ -8497,35 +8801,39 @@
       <c r="Q90" s="13">
         <v>43788</v>
       </c>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
+      <c r="R90" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>276</v>
+      </c>
       <c r="U90" s="14"/>
     </row>
     <row r="91" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A91" s="12" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>622</v>
+        <v>936</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D91" s="12"/>
       <c r="E91" s="12" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>213</v>
@@ -8533,20 +8841,14 @@
       <c r="J91" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K91" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>351</v>
-      </c>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="P91" s="12" t="s">
         <v>42</v>
@@ -8555,10 +8857,10 @@
         <v>43788</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="S91" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T91" s="12" t="s">
         <v>276</v>
@@ -8567,26 +8869,26 @@
     </row>
     <row r="92" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A92" s="12" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>622</v>
+        <v>937</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>213</v>
@@ -8594,20 +8896,14 @@
       <c r="J92" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K92" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>351</v>
-      </c>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
       <c r="N92" s="12" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="P92" s="12" t="s">
         <v>42</v>
@@ -8616,10 +8912,10 @@
         <v>43788</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>363</v>
+        <v>283</v>
       </c>
       <c r="S92" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T92" s="12" t="s">
         <v>276</v>
@@ -8628,26 +8924,26 @@
     </row>
     <row r="93" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A93" s="12" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>622</v>
+        <v>938</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>213</v>
@@ -8655,20 +8951,14 @@
       <c r="J93" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K93" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>351</v>
-      </c>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
       <c r="N93" s="12" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="P93" s="12" t="s">
         <v>42</v>
@@ -8677,10 +8967,10 @@
         <v>43788</v>
       </c>
       <c r="R93" s="12" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="S93" s="12" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="T93" s="12" t="s">
         <v>276</v>
@@ -8689,444 +8979,462 @@
     </row>
     <row r="94" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A94" s="12" t="s">
-        <v>369</v>
+        <v>897</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>622</v>
+        <v>939</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12" t="s">
-        <v>370</v>
+        <v>903</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>910</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>371</v>
+        <v>897</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>372</v>
+        <v>922</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>351</v>
+        <v>698</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>351</v>
+        <v>698</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="O94" s="12" t="s">
-        <v>63</v>
+        <v>699</v>
+      </c>
+      <c r="O94" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P94" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q94" s="13">
-        <v>43788</v>
+        <v>45761</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>356</v>
+        <v>699</v>
       </c>
       <c r="S94" s="12" t="s">
         <v>31</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U94" s="14"/>
     </row>
     <row r="95" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A95" s="12" t="s">
-        <v>374</v>
+        <v>898</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>622</v>
+        <v>940</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12" t="s">
-        <v>375</v>
+        <v>904</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>912</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>376</v>
+        <v>898</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>377</v>
+        <v>923</v>
       </c>
       <c r="I95" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>351</v>
+        <v>698</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>351</v>
+        <v>698</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="O95" s="12" t="s">
-        <v>361</v>
+        <v>699</v>
+      </c>
+      <c r="O95" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P95" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q95" s="13">
-        <v>43788</v>
+        <v>45761</v>
       </c>
       <c r="R95" s="12" t="s">
-        <v>363</v>
+        <v>699</v>
       </c>
       <c r="S95" s="12" t="s">
         <v>31</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U95" s="14"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12" t="s">
-        <v>63</v>
+    <row r="96" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A96" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="O96" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P96" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q96" s="13">
-        <v>43788</v>
-      </c>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12"/>
+        <v>45761</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="S96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T96" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="U96" s="14"/>
     </row>
     <row r="97" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A97" s="12" t="s">
-        <v>379</v>
+        <v>900</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>623</v>
+        <v>942</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>383</v>
+        <v>906</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>380</v>
+        <v>915</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>916</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>379</v>
+        <v>900</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>381</v>
+        <v>925</v>
       </c>
       <c r="I97" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>379</v>
+        <v>698</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>379</v>
+        <v>33</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>379</v>
+        <v>698</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="O97" s="12" t="s">
-        <v>63</v>
+        <v>699</v>
+      </c>
+      <c r="O97" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P97" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q97" s="13">
-        <v>43788</v>
+        <v>45761</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>356</v>
+        <v>699</v>
       </c>
       <c r="S97" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U97" s="14"/>
     </row>
     <row r="98" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A98" s="12" t="s">
-        <v>384</v>
+        <v>901</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>623</v>
+        <v>943</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12" t="s">
-        <v>385</v>
+        <v>907</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>918</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>386</v>
+        <v>921</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>387</v>
+        <v>945</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>379</v>
+        <v>698</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>379</v>
+        <v>33</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>379</v>
+        <v>698</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="O98" s="12" t="s">
-        <v>63</v>
+        <v>699</v>
+      </c>
+      <c r="O98" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P98" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q98" s="13">
-        <v>43788</v>
+        <v>45761</v>
       </c>
       <c r="R98" s="12" t="s">
-        <v>356</v>
+        <v>699</v>
       </c>
       <c r="S98" s="12" t="s">
         <v>31</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U98" s="14"/>
     </row>
     <row r="99" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A99" s="12" t="s">
-        <v>389</v>
+        <v>902</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>623</v>
+        <v>944</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12" t="s">
-        <v>390</v>
+        <v>908</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>920</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>391</v>
+        <v>902</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>392</v>
+        <v>946</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>379</v>
+        <v>698</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>379</v>
+        <v>33</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>379</v>
+        <v>698</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="O99" s="12" t="s">
-        <v>63</v>
+        <v>699</v>
+      </c>
+      <c r="O99" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="P99" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q99" s="13">
-        <v>43788</v>
+        <v>45761</v>
       </c>
       <c r="R99" s="12" t="s">
-        <v>356</v>
+        <v>699</v>
       </c>
       <c r="S99" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U99" s="14"/>
     </row>
     <row r="100" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A100" s="12" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" s="12"/>
+        <v>350</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="E100" s="12" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>213</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="P100" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q100" s="13">
-        <v>43788</v>
+        <v>44111</v>
       </c>
       <c r="R100" s="12" t="s">
-        <v>356</v>
+        <v>193</v>
       </c>
       <c r="S100" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U100" s="14"/>
     </row>
-    <row r="101" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A101" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>403</v>
-      </c>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K101" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="M101" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="N101" s="12" t="s">
-        <v>382</v>
-      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
       <c r="O101" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="P101" s="12" t="s">
         <v>42</v>
@@ -9134,39 +9442,35 @@
       <c r="Q101" s="13">
         <v>43788</v>
       </c>
-      <c r="R101" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="S101" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="T101" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
       <c r="U101" s="14"/>
     </row>
     <row r="102" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A102" s="12" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="D102" s="12"/>
+        <v>355</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="E102" s="12" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>213</v>
@@ -9175,16 +9479,16 @@
         <v>59</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="O102" s="12" t="s">
         <v>63</v>
@@ -9199,7 +9503,7 @@
         <v>356</v>
       </c>
       <c r="S102" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T102" s="12" t="s">
         <v>276</v>
@@ -9208,26 +9512,26 @@
     </row>
     <row r="103" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A103" s="12" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>213</v>
@@ -9236,19 +9540,19 @@
         <v>59</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="O103" s="12" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="P103" s="12" t="s">
         <v>42</v>
@@ -9257,10 +9561,10 @@
         <v>43788</v>
       </c>
       <c r="R103" s="12" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="S103" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T103" s="12" t="s">
         <v>276</v>
@@ -9269,26 +9573,26 @@
     </row>
     <row r="104" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A104" s="12" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>213</v>
@@ -9297,16 +9601,16 @@
         <v>59</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="N104" s="12" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="O104" s="12" t="s">
         <v>63</v>
@@ -9321,7 +9625,7 @@
         <v>356</v>
       </c>
       <c r="S104" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T104" s="12" t="s">
         <v>276</v>
@@ -9330,26 +9634,26 @@
     </row>
     <row r="105" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A105" s="12" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>213</v>
@@ -9358,16 +9662,16 @@
         <v>59</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="N105" s="12" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="O105" s="12" t="s">
         <v>63</v>
@@ -9382,7 +9686,7 @@
         <v>356</v>
       </c>
       <c r="S105" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T105" s="12" t="s">
         <v>276</v>
@@ -9391,26 +9695,26 @@
     </row>
     <row r="106" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A106" s="12" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>213</v>
@@ -9419,19 +9723,19 @@
         <v>59</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="N106" s="12" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="O106" s="12" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="P106" s="12" t="s">
         <v>42</v>
@@ -9440,57 +9744,31 @@
         <v>43788</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="S106" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T106" s="12" t="s">
         <v>276</v>
       </c>
       <c r="U106" s="14"/>
     </row>
-    <row r="107" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A107" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>433</v>
-      </c>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="L107" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="M107" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>382</v>
-      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
       <c r="O107" s="12" t="s">
         <v>63</v>
       </c>
@@ -9500,39 +9778,35 @@
       <c r="Q107" s="13">
         <v>43788</v>
       </c>
-      <c r="R107" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="S107" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="T107" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
       <c r="U107" s="14"/>
     </row>
     <row r="108" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A108" s="12" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D108" s="12"/>
+        <v>383</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>379</v>
+      </c>
       <c r="E108" s="12" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>213</v>
@@ -9574,26 +9848,26 @@
     </row>
     <row r="109" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A109" s="12" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>623</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>271</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>213</v>
@@ -9626,7 +9900,7 @@
         <v>356</v>
       </c>
       <c r="S109" s="12" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T109" s="12" t="s">
         <v>276</v>
@@ -9634,678 +9908,700 @@
       <c r="U109" s="14"/>
     </row>
     <row r="110" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A110" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="G110" s="17" t="s">
+      <c r="A110" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G110" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H110" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="I110" s="17" t="s">
+      <c r="H110" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I110" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J110" s="17" t="s">
+      <c r="J110" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K110" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L110" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M110" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N110" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R110" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S110" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T110" s="17" t="s">
+      <c r="K110" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P110" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q110" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R110" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S110" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U110" s="19"/>
+      <c r="T110" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="U110" s="14"/>
     </row>
     <row r="111" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A111" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="G111" s="17" t="s">
+      <c r="A111" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G111" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H111" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="I111" s="17" t="s">
+      <c r="H111" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I111" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J111" s="17" t="s">
+      <c r="J111" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K111" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L111" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M111" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N111" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R111" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S111" s="17" t="s">
+      <c r="K111" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O111" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P111" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q111" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R111" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S111" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T111" s="17" t="s">
+      <c r="T111" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U111" s="19"/>
+      <c r="U111" s="14"/>
     </row>
     <row r="112" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A112" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="F112" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="G112" s="17" t="s">
+      <c r="A112" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G112" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H112" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="I112" s="17" t="s">
+      <c r="H112" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="I112" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J112" s="17" t="s">
+      <c r="J112" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K112" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L112" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M112" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N112" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R112" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S112" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T112" s="17" t="s">
+      <c r="K112" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L112" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R112" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S112" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U112" s="19"/>
+      <c r="T112" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="U112" s="14"/>
     </row>
     <row r="113" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A113" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>759</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>761</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>762</v>
-      </c>
-      <c r="G113" s="17" t="s">
+      <c r="A113" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G113" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H113" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="I113" s="17" t="s">
+      <c r="H113" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="I113" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J113" s="17" t="s">
+      <c r="J113" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K113" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L113" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M113" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N113" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R113" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S113" s="17" t="s">
+      <c r="K113" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L113" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P113" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R113" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S113" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T113" s="17" t="s">
+      <c r="T113" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U113" s="19"/>
+      <c r="U113" s="14"/>
     </row>
     <row r="114" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A114" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="G114" s="17" t="s">
+      <c r="A114" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G114" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H114" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="I114" s="17" t="s">
+      <c r="H114" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I114" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J114" s="17" t="s">
+      <c r="J114" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K114" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M114" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N114" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R114" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S114" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T114" s="17" t="s">
+      <c r="K114" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L114" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M114" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N114" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P114" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q114" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R114" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S114" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U114" s="19"/>
+      <c r="T114" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="U114" s="14"/>
     </row>
     <row r="115" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A115" s="17" t="s">
-        <v>770</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>770</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>773</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>774</v>
-      </c>
-      <c r="G115" s="17" t="s">
+      <c r="A115" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="G115" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H115" s="17" t="s">
-        <v>775</v>
-      </c>
-      <c r="I115" s="17" t="s">
+      <c r="H115" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I115" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J115" s="17" t="s">
+      <c r="J115" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K115" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L115" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M115" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N115" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R115" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S115" s="17" t="s">
+      <c r="K115" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N115" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O115" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q115" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R115" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S115" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T115" s="17" t="s">
+      <c r="T115" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U115" s="19"/>
+      <c r="U115" s="14"/>
     </row>
     <row r="116" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A116" s="17" t="s">
-        <v>776</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>776</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="G116" s="17" t="s">
+      <c r="A116" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G116" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H116" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="I116" s="17" t="s">
+      <c r="H116" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="I116" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J116" s="17" t="s">
+      <c r="J116" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K116" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L116" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M116" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N116" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R116" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S116" s="17" t="s">
+      <c r="K116" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L116" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M116" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N116" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O116" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P116" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q116" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R116" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S116" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T116" s="17" t="s">
+      <c r="T116" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U116" s="19"/>
+      <c r="U116" s="14"/>
     </row>
     <row r="117" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A117" s="17" t="s">
-        <v>782</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>783</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>784</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>782</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>785</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="G117" s="17" t="s">
+      <c r="A117" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G117" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H117" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="I117" s="17" t="s">
+      <c r="H117" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I117" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J117" s="17" t="s">
+      <c r="J117" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K117" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L117" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M117" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N117" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R117" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S117" s="17" t="s">
+      <c r="K117" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L117" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N117" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O117" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P117" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q117" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R117" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S117" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T117" s="17" t="s">
+      <c r="T117" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U117" s="19"/>
+      <c r="U117" s="14"/>
     </row>
     <row r="118" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A118" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="F118" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="G118" s="17" t="s">
+      <c r="A118" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G118" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H118" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="I118" s="17" t="s">
+      <c r="H118" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I118" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J118" s="17" t="s">
+      <c r="J118" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K118" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L118" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M118" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N118" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R118" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S118" s="17" t="s">
+      <c r="K118" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L118" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M118" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N118" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P118" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q118" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R118" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S118" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T118" s="17" t="s">
+      <c r="T118" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U118" s="19"/>
+      <c r="U118" s="14"/>
     </row>
     <row r="119" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A119" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>795</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="G119" s="17" t="s">
+      <c r="A119" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G119" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H119" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="I119" s="17" t="s">
+      <c r="H119" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I119" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J119" s="17" t="s">
+      <c r="J119" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K119" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L119" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M119" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N119" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R119" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="S119" s="17" t="s">
+      <c r="K119" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L119" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N119" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O119" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P119" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q119" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R119" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S119" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T119" s="17" t="s">
+      <c r="T119" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U119" s="19"/>
+      <c r="U119" s="14"/>
     </row>
     <row r="120" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A120" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="G120" s="17" t="s">
+      <c r="A120" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G120" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H120" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="I120" s="17" t="s">
+      <c r="H120" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="I120" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J120" s="17" t="s">
+      <c r="J120" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K120" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L120" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="M120" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="N120" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="20">
-        <v>45509</v>
-      </c>
-      <c r="R120" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="S120" s="17" t="s">
+      <c r="K120" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L120" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N120" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O120" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P120" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q120" s="13">
+        <v>43788</v>
+      </c>
+      <c r="R120" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S120" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T120" s="17" t="s">
+      <c r="T120" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U120" s="19"/>
+      <c r="U120" s="14"/>
     </row>
     <row r="121" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A121" s="17" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>809</v>
+        <v>741</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>810</v>
+        <v>742</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>811</v>
+        <v>739</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>812</v>
+        <v>743</v>
       </c>
       <c r="I121" s="17" t="s">
         <v>213</v>
@@ -10331,10 +10627,10 @@
         <v>45509</v>
       </c>
       <c r="R121" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S121" s="17" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T121" s="17" t="s">
         <v>276</v>
@@ -10343,28 +10639,28 @@
     </row>
     <row r="122" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A122" s="17" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>814</v>
+        <v>747</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>816</v>
+        <v>749</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>817</v>
+        <v>750</v>
       </c>
       <c r="G122" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>818</v>
+        <v>751</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>213</v>
@@ -10390,7 +10686,7 @@
         <v>45509</v>
       </c>
       <c r="R122" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S122" s="17" t="s">
         <v>276</v>
@@ -10402,28 +10698,28 @@
     </row>
     <row r="123" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A123" s="17" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>821</v>
+        <v>754</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>822</v>
+        <v>755</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>823</v>
+        <v>756</v>
       </c>
       <c r="G123" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>824</v>
+        <v>757</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>213</v>
@@ -10449,10 +10745,10 @@
         <v>45509</v>
       </c>
       <c r="R123" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S123" s="17" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T123" s="17" t="s">
         <v>276</v>
@@ -10461,28 +10757,28 @@
     </row>
     <row r="124" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A124" s="17" t="s">
-        <v>825</v>
+        <v>758</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>826</v>
+        <v>759</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>827</v>
+        <v>760</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>825</v>
+        <v>758</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>828</v>
+        <v>761</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>829</v>
+        <v>762</v>
       </c>
       <c r="G124" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>830</v>
+        <v>763</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>213</v>
@@ -10508,7 +10804,7 @@
         <v>45509</v>
       </c>
       <c r="R124" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S124" s="17" t="s">
         <v>276</v>
@@ -10520,28 +10816,28 @@
     </row>
     <row r="125" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A125" s="17" t="s">
-        <v>831</v>
+        <v>764</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>832</v>
+        <v>765</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>833</v>
+        <v>766</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>831</v>
+        <v>764</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>834</v>
+        <v>767</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>835</v>
+        <v>768</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>836</v>
+        <v>769</v>
       </c>
       <c r="I125" s="17" t="s">
         <v>213</v>
@@ -10567,10 +10863,10 @@
         <v>45509</v>
       </c>
       <c r="R125" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S125" s="17" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T125" s="17" t="s">
         <v>276</v>
@@ -10579,28 +10875,28 @@
     </row>
     <row r="126" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A126" s="17" t="s">
-        <v>837</v>
+        <v>770</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>838</v>
+        <v>771</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>839</v>
+        <v>772</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>837</v>
+        <v>770</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>840</v>
+        <v>773</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>841</v>
+        <v>774</v>
       </c>
       <c r="G126" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>842</v>
+        <v>775</v>
       </c>
       <c r="I126" s="17" t="s">
         <v>213</v>
@@ -10626,7 +10922,7 @@
         <v>45509</v>
       </c>
       <c r="R126" s="17" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="S126" s="17" t="s">
         <v>276</v>
@@ -10636,30 +10932,30 @@
       </c>
       <c r="U126" s="19"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="127" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A127" s="17" t="s">
-        <v>857</v>
+        <v>776</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>864</v>
+        <v>777</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>863</v>
+        <v>778</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>857</v>
+        <v>776</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>865</v>
+        <v>779</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>857</v>
+        <v>780</v>
       </c>
       <c r="G127" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>862</v>
+        <v>781</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>213</v>
@@ -10668,26 +10964,24 @@
         <v>59</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>857</v>
+        <v>739</v>
       </c>
       <c r="L127" s="17" t="s">
-        <v>857</v>
+        <v>739</v>
       </c>
       <c r="M127" s="17" t="s">
-        <v>857</v>
+        <v>739</v>
       </c>
       <c r="N127" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="O127" s="19" t="s">
-        <v>281</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="O127" s="19"/>
       <c r="P127" s="19"/>
       <c r="Q127" s="20">
-        <v>45715</v>
+        <v>45509</v>
       </c>
       <c r="R127" s="17" t="s">
-        <v>859</v>
+        <v>745</v>
       </c>
       <c r="S127" s="17" t="s">
         <v>276</v>
@@ -10697,30 +10991,30 @@
       </c>
       <c r="U127" s="19"/>
     </row>
-    <row r="128" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+    <row r="128" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A128" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>872</v>
+        <v>782</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>783</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>869</v>
+        <v>784</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>858</v>
+        <v>782</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>866</v>
+        <v>785</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>858</v>
+        <v>786</v>
       </c>
       <c r="G128" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>861</v>
+        <v>787</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>213</v>
@@ -10729,26 +11023,24 @@
         <v>59</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>858</v>
+        <v>739</v>
       </c>
       <c r="L128" s="17" t="s">
-        <v>858</v>
+        <v>739</v>
       </c>
       <c r="M128" s="17" t="s">
-        <v>858</v>
+        <v>739</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="O128" s="19" t="s">
-        <v>281</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="O128" s="19"/>
       <c r="P128" s="19"/>
       <c r="Q128" s="20">
-        <v>45715</v>
+        <v>45509</v>
       </c>
       <c r="R128" s="17" t="s">
-        <v>859</v>
+        <v>745</v>
       </c>
       <c r="S128" s="17" t="s">
         <v>276</v>
@@ -10758,30 +11050,30 @@
       </c>
       <c r="U128" s="19"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="129" spans="1:21" ht="32" x14ac:dyDescent="0.8">
       <c r="A129" s="17" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>870</v>
+        <v>789</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>871</v>
+        <v>790</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>867</v>
+        <v>791</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>856</v>
+        <v>792</v>
       </c>
       <c r="G129" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>860</v>
+        <v>793</v>
       </c>
       <c r="I129" s="17" t="s">
         <v>213</v>
@@ -10790,26 +11082,24 @@
         <v>59</v>
       </c>
       <c r="K129" s="17" t="s">
-        <v>856</v>
+        <v>739</v>
       </c>
       <c r="L129" s="17" t="s">
-        <v>856</v>
+        <v>739</v>
       </c>
       <c r="M129" s="17" t="s">
-        <v>856</v>
+        <v>739</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="O129" s="19" t="s">
-        <v>281</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="O129" s="19"/>
       <c r="P129" s="19"/>
       <c r="Q129" s="20">
-        <v>45715</v>
+        <v>45509</v>
       </c>
       <c r="R129" s="17" t="s">
-        <v>859</v>
+        <v>745</v>
       </c>
       <c r="S129" s="17" t="s">
         <v>276</v>
@@ -10819,597 +11109,1262 @@
       </c>
       <c r="U129" s="19"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="12"/>
-      <c r="P130" s="12"/>
-      <c r="Q130" s="13"/>
-      <c r="R130" s="12"/>
-      <c r="S130" s="12"/>
-      <c r="T130" s="12"/>
-      <c r="U130" s="14"/>
+    <row r="130" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A130" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K130" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L130" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M130" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N130" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R130" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S130" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T130" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U130" s="19"/>
     </row>
     <row r="131" spans="1:21" ht="32" x14ac:dyDescent="0.8">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K131" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L131" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M131" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N131" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R131" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S131" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T131" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U131" s="19"/>
+    </row>
+    <row r="132" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A132" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K132" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L132" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M132" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N132" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R132" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S132" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T132" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U132" s="19"/>
+    </row>
+    <row r="133" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A133" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K133" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L133" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M133" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N133" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R133" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S133" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T133" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U133" s="19"/>
+    </row>
+    <row r="134" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A134" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="I134" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L134" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M134" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N134" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R134" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S134" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T134" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U134" s="19"/>
+    </row>
+    <row r="135" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A135" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="I135" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M135" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N135" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R135" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S135" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T135" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U135" s="19"/>
+    </row>
+    <row r="136" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A136" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K136" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L136" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M136" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N136" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R136" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S136" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T136" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U136" s="19"/>
+    </row>
+    <row r="137" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A137" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K137" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L137" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M137" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="N137" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="20">
+        <v>45509</v>
+      </c>
+      <c r="R137" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="S137" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T137" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U137" s="19"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A138" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="L138" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="M138" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="N138" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O138" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="20">
+        <v>45715</v>
+      </c>
+      <c r="R138" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="S138" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T138" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U138" s="19"/>
+    </row>
+    <row r="139" spans="1:21" ht="48" x14ac:dyDescent="0.8">
+      <c r="A139" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K139" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="L139" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="M139" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="N139" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O139" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="20">
+        <v>45715</v>
+      </c>
+      <c r="R139" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="S139" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T139" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U139" s="19"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A140" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="M140" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="N140" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O140" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="20">
+        <v>45715</v>
+      </c>
+      <c r="R140" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="S140" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T140" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U140" s="19"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="14"/>
+    </row>
+    <row r="142" spans="1:21" ht="32" x14ac:dyDescent="0.8">
+      <c r="A142" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
-      <c r="Q131" s="18"/>
-      <c r="R131" s="18"/>
-      <c r="S131" s="18"/>
-      <c r="T131" s="18"/>
-      <c r="U131" s="18"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A132" s="12" t="s">
+      <c r="B142" s="11"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+      <c r="Q142" s="18"/>
+      <c r="R142" s="18"/>
+      <c r="S142" s="18"/>
+      <c r="T142" s="18"/>
+      <c r="U142" s="18"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A143" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12" t="s">
+      <c r="B143" s="12"/>
+      <c r="C143" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D143" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E143" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F143" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G143" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I132" s="12" t="s">
+      <c r="H143" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I143" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J132" s="12" t="s">
+      <c r="J143" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="12" t="s">
+      <c r="K143" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="L132" s="12" t="s">
+      <c r="L143" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="M132" s="12" t="s">
+      <c r="M143" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N132" s="12" t="s">
+      <c r="N143" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O132" s="12" t="s">
+      <c r="O143" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P132" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q132" s="13">
+      <c r="P143" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q143" s="13">
         <v>42507</v>
       </c>
-      <c r="R132" s="12" t="s">
+      <c r="R143" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="S132" s="12"/>
-      <c r="T132" s="12"/>
-      <c r="U132" s="14"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A133" s="12" t="s">
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="14"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="A144" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12" t="s">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D144" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E144" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="F133" s="12" t="s">
+      <c r="F144" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G133" s="12" t="s">
+      <c r="G144" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H133" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I133" s="12" t="s">
+      <c r="H144" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I144" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J144" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K144" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="L133" s="12" t="s">
+      <c r="L144" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M133" s="12" t="s">
+      <c r="M144" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N133" s="12" t="s">
+      <c r="N144" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="O133" s="12" t="s">
+      <c r="O144" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="P133" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q133" s="13">
+      <c r="P144" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q144" s="13">
         <v>41002</v>
       </c>
-      <c r="R133" s="12" t="s">
+      <c r="R144" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S133" s="12"/>
-      <c r="T133" s="12"/>
-      <c r="U133" s="14"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A134" s="12" t="s">
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="14"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A145" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12" t="s">
+      <c r="B145" s="12"/>
+      <c r="C145" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D145" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E145" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="F145" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G145" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H134" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I134" s="12" t="s">
+      <c r="H145" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I145" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J134" s="12" t="s">
+      <c r="J145" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K134" s="12" t="s">
+      <c r="K145" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="L134" s="12" t="s">
+      <c r="L145" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="M134" s="12" t="s">
+      <c r="M145" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="N134" s="12" t="s">
+      <c r="N145" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="O134" s="12" t="s">
+      <c r="O145" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="P134" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q134" s="13">
+      <c r="P145" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q145" s="13">
         <v>41002</v>
       </c>
-      <c r="R134" s="12" t="s">
+      <c r="R145" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S134" s="12"/>
-      <c r="T134" s="12"/>
-      <c r="U134" s="14"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A135" s="12" t="s">
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="14"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A146" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12" t="s">
+      <c r="B146" s="12"/>
+      <c r="C146" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D146" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E146" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="F135" s="12" t="s">
+      <c r="F146" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="G135" s="12" t="s">
+      <c r="G146" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H135" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I135" s="12" t="s">
+      <c r="H146" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I146" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J135" s="12" t="s">
+      <c r="J146" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K135" s="12" t="s">
+      <c r="K146" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="L135" s="12" t="s">
+      <c r="L146" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="M135" s="12" t="s">
+      <c r="M146" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="N135" s="12" t="s">
+      <c r="N146" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="O135" s="12" t="s">
+      <c r="O146" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="P135" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q135" s="13">
+      <c r="P146" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q146" s="13">
         <v>41002</v>
       </c>
-      <c r="R135" s="12" t="s">
+      <c r="R146" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S135" s="12"/>
-      <c r="T135" s="12"/>
-      <c r="U135" s="14"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A136" s="12" t="s">
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="14"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A147" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12" t="s">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D147" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E147" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F136" s="12" t="s">
+      <c r="F147" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G136" s="12" t="s">
+      <c r="G147" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="12" t="s">
+      <c r="H147" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="I136" s="12" t="s">
+      <c r="I147" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J136" s="12" t="s">
+      <c r="J147" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K136" s="12" t="s">
+      <c r="K147" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="L136" s="12" t="s">
+      <c r="L147" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M136" s="12" t="s">
+      <c r="M147" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="N136" s="12" t="s">
+      <c r="N147" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="O136" s="12" t="s">
+      <c r="O147" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="P136" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q136" s="13">
+      <c r="P147" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q147" s="13">
         <v>41002</v>
       </c>
-      <c r="R136" s="12" t="s">
+      <c r="R147" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S136" s="12"/>
-      <c r="T136" s="12"/>
-      <c r="U136" s="14"/>
-    </row>
-    <row r="137" spans="1:21" ht="48" x14ac:dyDescent="0.8">
-      <c r="A137" s="12" t="s">
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="14"/>
+    </row>
+    <row r="148" spans="1:22" ht="48" x14ac:dyDescent="0.8">
+      <c r="A148" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B148" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C148" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D148" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E148" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F137" s="12" t="s">
+      <c r="F148" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G137" s="12" t="s">
+      <c r="G148" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H137" s="12" t="s">
+      <c r="H148" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I137" s="12" t="s">
+      <c r="I148" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J137" s="12" t="s">
+      <c r="J148" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K137" s="12" t="s">
+      <c r="K148" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L137" s="12" t="s">
+      <c r="L148" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M137" s="12" t="s">
+      <c r="M148" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N137" s="12" t="s">
+      <c r="N148" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="O137" s="12" t="s">
+      <c r="O148" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P137" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q137" s="13">
+      <c r="P148" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q148" s="13">
         <v>42118</v>
       </c>
-      <c r="R137" s="12" t="s">
+      <c r="R148" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S137" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T137" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U137" s="14"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138" s="9"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
-      <c r="R138"/>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="U138"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A139" s="3" t="s">
+      <c r="S148" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T148" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U148" s="14"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149" s="9"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A150" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A140" s="3" t="s">
+      <c r="B150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A151" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A141" s="4" t="s">
+      <c r="B151" s="3"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A152" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A142" s="4" t="s">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A153" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A143" s="7" t="s">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A154" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="R143" s="7"/>
-      <c r="S143" s="7"/>
-      <c r="T143" s="7"/>
-      <c r="U143" s="7"/>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.8">
-      <c r="A144" s="5" t="s">
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7"/>
+      <c r="T154" s="7"/>
+      <c r="U154" s="7"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="A155" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="146" spans="4:22" x14ac:dyDescent="0.8">
-      <c r="D146" s="5" t="s">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.8">
+      <c r="D157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E157" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="J146" s="5" t="s">
+      <c r="J157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="K146" s="5" t="s">
+      <c r="K157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="L146" s="5" t="s">
+      <c r="L157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="M146" s="5" t="s">
+      <c r="M157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="P146" s="5" t="s">
+      <c r="P157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="R146" s="5" t="s">
+      <c r="R157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="S146" s="5" t="s">
+      <c r="S157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="T146" s="5" t="s">
+      <c r="T157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="U146" s="5" t="s">
+      <c r="U157" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="V146" s="5" t="s">
+      <c r="V157" s="5" t="s">
         <v>855</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O68" r:id="rId1" display="murakami.shinya@jaxa.jp" xr:uid="{01DA75B4-19A0-4336-8C87-BE018A8D132A}"/>
+    <hyperlink ref="O74" r:id="rId1" display="murakami.shinya@jaxa.jp" xr:uid="{01DA75B4-19A0-4336-8C87-BE018A8D132A}"/>
+    <hyperlink ref="O60" r:id="rId2" display="murakami.shinya@jaxa.jp" xr:uid="{D1657E2D-7AB0-4C53-B977-119F78918607}"/>
+    <hyperlink ref="O45" r:id="rId3" display="murakami.shinya@jaxa.jp" xr:uid="{C81BC639-28AF-4159-B44A-854ED34AE89C}"/>
+    <hyperlink ref="O72" r:id="rId4" display="murakami.shinya@jaxa.jp" xr:uid="{7F077A21-6A46-4357-819D-567BD3D440C0}"/>
+    <hyperlink ref="O73" r:id="rId5" display="murakami.shinya@jaxa.jp" xr:uid="{E25FB432-2C67-446C-877E-ED14B3BB1D3C}"/>
+    <hyperlink ref="O94" r:id="rId6" display="murakami.shinya@jaxa.jp" xr:uid="{F3720F63-95ED-4C8F-9B54-81C948F40B00}"/>
+    <hyperlink ref="O96" r:id="rId7" display="murakami.shinya@jaxa.jp" xr:uid="{5138A935-04AD-468A-B5D1-85FCA7D8FB22}"/>
+    <hyperlink ref="O95" r:id="rId8" display="murakami.shinya@jaxa.jp" xr:uid="{5725B4D5-AC59-40E6-9B3A-ADCB5EB0C6D8}"/>
+    <hyperlink ref="O99" r:id="rId9" display="murakami.shinya@jaxa.jp" xr:uid="{1CB633E2-E1AB-437B-B517-B9F5687F978C}"/>
+    <hyperlink ref="O97" r:id="rId10" display="murakami.shinya@jaxa.jp" xr:uid="{EF3A89FD-08B4-46C1-BD91-0D95801E70FD}"/>
+    <hyperlink ref="O98" r:id="rId11" display="murakami.shinya@jaxa.jp" xr:uid="{12C0759C-69E8-43C4-9941-4C2A0856C253}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="25" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup scale="25" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>